--- a/Resultados/Fase1/Datos_2025_EM9.xlsx
+++ b/Resultados/Fase1/Datos_2025_EM9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
   <si>
     <t>Date</t>
   </si>
@@ -38,12 +38,6 @@
   </si>
   <si>
     <t>Return_%</t>
-  </si>
-  <si>
-    <t>H&gt;=L</t>
-  </si>
-  <si>
-    <t>Valid_Range</t>
   </si>
   <si>
     <t>EMH</t>
@@ -1073,13 +1067,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M222"/>
+  <dimension ref="A1:K222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1113,16 +1107,10 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>21269</v>
@@ -1145,25 +1133,19 @@
       <c r="H2">
         <v>-0.2779544437377823</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
+      <c r="I2">
+        <v>21598</v>
+      </c>
+      <c r="J2">
+        <v>20926.75</v>
       </c>
       <c r="K2">
-        <v>21598</v>
-      </c>
-      <c r="L2">
-        <v>20926.75</v>
-      </c>
-      <c r="M2">
         <v>671.25</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>21186.75</v>
@@ -1186,25 +1168,19 @@
       <c r="H3">
         <v>1.648753986063545</v>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
+      <c r="I3">
+        <v>21515.75</v>
+      </c>
+      <c r="J3">
+        <v>20909.25</v>
       </c>
       <c r="K3">
-        <v>21515.75</v>
-      </c>
-      <c r="L3">
-        <v>20909.25</v>
-      </c>
-      <c r="M3">
         <v>606.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>21532.25</v>
@@ -1227,25 +1203,19 @@
       <c r="H4">
         <v>1.059651895057279</v>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
+      <c r="I4">
+        <v>21849.75</v>
+      </c>
+      <c r="J4">
+        <v>21247.25</v>
       </c>
       <c r="K4">
-        <v>21849.75</v>
-      </c>
-      <c r="L4">
-        <v>21247.25</v>
-      </c>
-      <c r="M4">
         <v>602.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>21781.25</v>
@@ -1268,25 +1238,19 @@
       <c r="H5">
         <v>-1.769412955000116</v>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
+      <c r="I5">
+        <v>22032.75</v>
+      </c>
+      <c r="J5">
+        <v>21496.25</v>
       </c>
       <c r="K5">
-        <v>22032.75</v>
-      </c>
-      <c r="L5">
-        <v>21496.25</v>
-      </c>
-      <c r="M5">
         <v>536.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>21380.75</v>
@@ -1309,25 +1273,19 @@
       <c r="H6">
         <v>0.004681702735287452</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
+      <c r="I6">
+        <v>21648</v>
+      </c>
+      <c r="J6">
+        <v>21083.5</v>
       </c>
       <c r="K6">
-        <v>21648</v>
-      </c>
-      <c r="L6">
-        <v>21083.5</v>
-      </c>
-      <c r="M6">
         <v>564.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>21334.75</v>
@@ -1350,25 +1308,19 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
+      <c r="I7">
+        <v>21619.25</v>
+      </c>
+      <c r="J7">
+        <v>21052.5</v>
       </c>
       <c r="K7">
-        <v>21619.25</v>
-      </c>
-      <c r="L7">
-        <v>21052.5</v>
-      </c>
-      <c r="M7">
         <v>566.75</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>21302.75</v>
@@ -1391,25 +1343,19 @@
       <c r="H8">
         <v>-1.613941458048052</v>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
+      <c r="I8">
+        <v>21524.75</v>
+      </c>
+      <c r="J8">
+        <v>21000.75</v>
       </c>
       <c r="K8">
-        <v>21524.75</v>
-      </c>
-      <c r="L8">
-        <v>21000.75</v>
-      </c>
-      <c r="M8">
         <v>524</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>21027.5</v>
@@ -1432,25 +1378,19 @@
       <c r="H9">
         <v>-0.3271317091739667</v>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
+      <c r="I9">
+        <v>21249.5</v>
+      </c>
+      <c r="J9">
+        <v>20727</v>
       </c>
       <c r="K9">
-        <v>21249.5</v>
-      </c>
-      <c r="L9">
-        <v>20727</v>
-      </c>
-      <c r="M9">
         <v>522.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>21020</v>
@@ -1473,25 +1413,19 @@
       <c r="H10">
         <v>-0.1324756232918389</v>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
+      <c r="I10">
+        <v>21242</v>
+      </c>
+      <c r="J10">
+        <v>20736</v>
       </c>
       <c r="K10">
-        <v>21242</v>
-      </c>
-      <c r="L10">
-        <v>20736</v>
-      </c>
-      <c r="M10">
         <v>506</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>20977</v>
@@ -1514,25 +1448,19 @@
       <c r="H11">
         <v>2.29809507875427</v>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
+      <c r="I11">
+        <v>21199</v>
+      </c>
+      <c r="J11">
+        <v>20690</v>
       </c>
       <c r="K11">
-        <v>21199</v>
-      </c>
-      <c r="L11">
-        <v>20690</v>
-      </c>
-      <c r="M11">
         <v>509</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>21389</v>
@@ -1555,25 +1483,19 @@
       <c r="H12">
         <v>-0.7032628123503248</v>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
+      <c r="I12">
+        <v>21648.25</v>
+      </c>
+      <c r="J12">
+        <v>21113.75</v>
       </c>
       <c r="K12">
-        <v>21648.25</v>
-      </c>
-      <c r="L12">
-        <v>21113.75</v>
-      </c>
-      <c r="M12">
         <v>534.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>21227.5</v>
@@ -1596,25 +1518,19 @@
       <c r="H13">
         <v>1.623548512335438</v>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
+      <c r="I13">
+        <v>21478.75</v>
+      </c>
+      <c r="J13">
+        <v>20953.25</v>
       </c>
       <c r="K13">
-        <v>21478.75</v>
-      </c>
-      <c r="L13">
-        <v>20953.25</v>
-      </c>
-      <c r="M13">
         <v>525.5</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>21600</v>
@@ -1637,25 +1553,19 @@
       <c r="H14">
         <v>0.4086641429051019</v>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
+      <c r="I14">
+        <v>21863.75</v>
+      </c>
+      <c r="J14">
+        <v>21325.75</v>
       </c>
       <c r="K14">
-        <v>21863.75</v>
-      </c>
-      <c r="L14">
-        <v>21325.75</v>
-      </c>
-      <c r="M14">
         <v>538</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>21687.25</v>
@@ -1678,25 +1588,19 @@
       <c r="H15">
         <v>0.12221556057741</v>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
+      <c r="I15">
+        <v>21928</v>
+      </c>
+      <c r="J15">
+        <v>21429.75</v>
       </c>
       <c r="K15">
-        <v>21928</v>
-      </c>
-      <c r="L15">
-        <v>21429.75</v>
-      </c>
-      <c r="M15">
         <v>498.25</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>21809.25</v>
@@ -1719,25 +1623,19 @@
       <c r="H16">
         <v>1.340427002003741</v>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
+      <c r="I16">
+        <v>22057.25</v>
+      </c>
+      <c r="J16">
+        <v>21535.5</v>
       </c>
       <c r="K16">
-        <v>22057.25</v>
-      </c>
-      <c r="L16">
-        <v>21535.5</v>
-      </c>
-      <c r="M16">
         <v>521.75</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>21981.75</v>
@@ -1760,25 +1658,19 @@
       <c r="H17">
         <v>0.1715870093861538</v>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
+      <c r="I17">
+        <v>22254.75</v>
+      </c>
+      <c r="J17">
+        <v>21708</v>
       </c>
       <c r="K17">
-        <v>22254.75</v>
-      </c>
-      <c r="L17">
-        <v>21708</v>
-      </c>
-      <c r="M17">
         <v>546.75</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>22018.5</v>
@@ -1801,25 +1693,19 @@
       <c r="H18">
         <v>-0.5762708019012353</v>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
+      <c r="I18">
+        <v>22267.25</v>
+      </c>
+      <c r="J18">
+        <v>21766.75</v>
       </c>
       <c r="K18">
-        <v>22267.25</v>
-      </c>
-      <c r="L18">
-        <v>21766.75</v>
-      </c>
-      <c r="M18">
         <v>500.5</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>21771</v>
@@ -1842,25 +1728,19 @@
       <c r="H19">
         <v>-2.979063266586801</v>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
+      <c r="I19">
+        <v>22019.75</v>
+      </c>
+      <c r="J19">
+        <v>21544</v>
       </c>
       <c r="K19">
-        <v>22019.75</v>
-      </c>
-      <c r="L19">
-        <v>21544</v>
-      </c>
-      <c r="M19">
         <v>475.75</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>21343.25</v>
@@ -1883,25 +1763,19 @@
       <c r="H20">
         <v>1.520568243290921</v>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="b">
-        <v>1</v>
+      <c r="I20">
+        <v>21592</v>
+      </c>
+      <c r="J20">
+        <v>20971.25</v>
       </c>
       <c r="K20">
-        <v>21592</v>
-      </c>
-      <c r="L20">
-        <v>20971.25</v>
-      </c>
-      <c r="M20">
         <v>620.75</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>21559</v>
@@ -1924,25 +1798,19 @@
       <c r="H21">
         <v>-0.2710623559257219</v>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="b">
-        <v>1</v>
+      <c r="I21">
+        <v>21799</v>
+      </c>
+      <c r="J21">
+        <v>21187</v>
       </c>
       <c r="K21">
-        <v>21799</v>
-      </c>
-      <c r="L21">
-        <v>21187</v>
-      </c>
-      <c r="M21">
         <v>612</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>21547.75</v>
@@ -1965,25 +1833,19 @@
       <c r="H22">
         <v>0.4715830555329648</v>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="b">
-        <v>1</v>
+      <c r="I22">
+        <v>21787.75</v>
+      </c>
+      <c r="J22">
+        <v>21190.5</v>
       </c>
       <c r="K22">
-        <v>21787.75</v>
-      </c>
-      <c r="L22">
-        <v>21190.5</v>
-      </c>
-      <c r="M22">
         <v>597.25</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>21680</v>
@@ -2006,25 +1868,19 @@
       <c r="H23">
         <v>-0.1641637475577773</v>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
+      <c r="I23">
+        <v>21903.75</v>
+      </c>
+      <c r="J23">
+        <v>21322.75</v>
       </c>
       <c r="K23">
-        <v>21903.75</v>
-      </c>
-      <c r="L23">
-        <v>21322.75</v>
-      </c>
-      <c r="M23">
         <v>581</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>21200</v>
@@ -2047,25 +1903,19 @@
       <c r="H24">
         <v>-0.8534340007179453</v>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="b">
-        <v>1</v>
+      <c r="I24">
+        <v>21434</v>
+      </c>
+      <c r="J24">
+        <v>20858.5</v>
       </c>
       <c r="K24">
-        <v>21434</v>
-      </c>
-      <c r="L24">
-        <v>20858.5</v>
-      </c>
-      <c r="M24">
         <v>575.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>21592</v>
@@ -2088,25 +1938,19 @@
       <c r="H25">
         <v>1.239196449427693</v>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="b">
-        <v>1</v>
+      <c r="I25">
+        <v>21857.5</v>
+      </c>
+      <c r="J25">
+        <v>21250.5</v>
       </c>
       <c r="K25">
-        <v>21857.5</v>
-      </c>
-      <c r="L25">
-        <v>21250.5</v>
-      </c>
-      <c r="M25">
         <v>607</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>21562</v>
@@ -2129,25 +1973,19 @@
       <c r="H26">
         <v>0.4280061374464905</v>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="b">
-        <v>1</v>
+      <c r="I26">
+        <v>21844.75</v>
+      </c>
+      <c r="J26">
+        <v>21220.5</v>
       </c>
       <c r="K26">
-        <v>21844.75</v>
-      </c>
-      <c r="L26">
-        <v>21220.5</v>
-      </c>
-      <c r="M26">
         <v>624.25</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>21764.5</v>
@@ -2170,25 +2008,19 @@
       <c r="H27">
         <v>0.499701327941926</v>
       </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="b">
-        <v>1</v>
+      <c r="I27">
+        <v>22071.5</v>
+      </c>
+      <c r="J27">
+        <v>21423</v>
       </c>
       <c r="K27">
-        <v>22071.5</v>
-      </c>
-      <c r="L27">
-        <v>21423</v>
-      </c>
-      <c r="M27">
         <v>648.5</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>21817.75</v>
@@ -2211,25 +2043,19 @@
       <c r="H28">
         <v>-1.28476230754283</v>
       </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="b">
-        <v>1</v>
+      <c r="I28">
+        <v>22093.5</v>
+      </c>
+      <c r="J28">
+        <v>21415.5</v>
       </c>
       <c r="K28">
-        <v>22093.5</v>
-      </c>
-      <c r="L28">
-        <v>21415.5</v>
-      </c>
-      <c r="M28">
         <v>678</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>21463.25</v>
@@ -2252,25 +2078,19 @@
       <c r="H29">
         <v>1.184535043942425</v>
       </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="b">
-        <v>1</v>
+      <c r="I29">
+        <v>21739</v>
+      </c>
+      <c r="J29">
+        <v>21195.75</v>
       </c>
       <c r="K29">
-        <v>21739</v>
-      </c>
-      <c r="L29">
-        <v>21195.75</v>
-      </c>
-      <c r="M29">
         <v>543.25</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>21832</v>
@@ -2293,25 +2113,19 @@
       <c r="H30">
         <v>-0.2734991875128712</v>
       </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="b">
-        <v>1</v>
+      <c r="I30">
+        <v>22109</v>
+      </c>
+      <c r="J30">
+        <v>21564.5</v>
       </c>
       <c r="K30">
-        <v>22109</v>
-      </c>
-      <c r="L30">
-        <v>21564.5</v>
-      </c>
-      <c r="M30">
         <v>544.5</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>21794.25</v>
@@ -2334,25 +2148,19 @@
       <c r="H31">
         <v>0.08261902303006163</v>
       </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="b">
-        <v>1</v>
+      <c r="I31">
+        <v>22071.25</v>
+      </c>
+      <c r="J31">
+        <v>21555.75</v>
       </c>
       <c r="K31">
-        <v>22071.25</v>
-      </c>
-      <c r="L31">
-        <v>21555.75</v>
-      </c>
-      <c r="M31">
         <v>515.5</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>21861.25</v>
@@ -2375,25 +2183,19 @@
       <c r="H32">
         <v>1.414829337644319</v>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="b">
-        <v>1</v>
+      <c r="I32">
+        <v>22140.75</v>
+      </c>
+      <c r="J32">
+        <v>21622.75</v>
       </c>
       <c r="K32">
-        <v>22140.75</v>
-      </c>
-      <c r="L32">
-        <v>21622.75</v>
-      </c>
-      <c r="M32">
         <v>518</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>22071</v>
@@ -2416,25 +2218,19 @@
       <c r="H33">
         <v>0.3753405763512907</v>
       </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="b">
-        <v>1</v>
+      <c r="I33">
+        <v>22346.75</v>
+      </c>
+      <c r="J33">
+        <v>21860.75</v>
       </c>
       <c r="K33">
-        <v>22346.75</v>
-      </c>
-      <c r="L33">
-        <v>21860.75</v>
-      </c>
-      <c r="M33">
         <v>486</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>22235.75</v>
@@ -2457,25 +2253,19 @@
       <c r="H34">
         <v>0.1757053556344035</v>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="b">
-        <v>1</v>
+      <c r="I34">
+        <v>22467.25</v>
+      </c>
+      <c r="J34">
+        <v>22025.5</v>
       </c>
       <c r="K34">
-        <v>22467.25</v>
-      </c>
-      <c r="L34">
-        <v>22025.5</v>
-      </c>
-      <c r="M34">
         <v>441.75</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>22224.75</v>
@@ -2498,25 +2288,19 @@
       <c r="H35">
         <v>-0.01349209026207943</v>
       </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="b">
-        <v>1</v>
+      <c r="I35">
+        <v>22443.5</v>
+      </c>
+      <c r="J35">
+        <v>22064.25</v>
       </c>
       <c r="K35">
-        <v>22443.5</v>
-      </c>
-      <c r="L35">
-        <v>22064.25</v>
-      </c>
-      <c r="M35">
         <v>379.25</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>22224.5</v>
@@ -2539,25 +2323,19 @@
       <c r="H36">
         <v>0.08208795780904055</v>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="b">
-        <v>1</v>
+      <c r="I36">
+        <v>22426.25</v>
+      </c>
+      <c r="J36">
+        <v>22064</v>
       </c>
       <c r="K36">
-        <v>22426.25</v>
-      </c>
-      <c r="L36">
-        <v>22064</v>
-      </c>
-      <c r="M36">
         <v>362.25</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>22213</v>
@@ -2580,25 +2358,19 @@
       <c r="H37">
         <v>-0.4887530617289526</v>
       </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="b">
-        <v>1</v>
+      <c r="I37">
+        <v>22415.5</v>
+      </c>
+      <c r="J37">
+        <v>22052.5</v>
       </c>
       <c r="K37">
-        <v>22415.5</v>
-      </c>
-      <c r="L37">
-        <v>22052.5</v>
-      </c>
-      <c r="M37">
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>22136</v>
@@ -2621,25 +2393,19 @@
       <c r="H38">
         <v>-2.08881411812526</v>
       </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="b">
-        <v>1</v>
+      <c r="I38">
+        <v>22338.5</v>
+      </c>
+      <c r="J38">
+        <v>22005.25</v>
       </c>
       <c r="K38">
-        <v>22338.5</v>
-      </c>
-      <c r="L38">
-        <v>22005.25</v>
-      </c>
-      <c r="M38">
         <v>333.25</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>21700.75</v>
@@ -2662,25 +2428,19 @@
       <c r="H39">
         <v>-1.19469077574178</v>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="b">
-        <v>1</v>
+      <c r="I39">
+        <v>21878.75</v>
+      </c>
+      <c r="J39">
+        <v>21501.75</v>
       </c>
       <c r="K39">
-        <v>21878.75</v>
-      </c>
-      <c r="L39">
-        <v>21501.75</v>
-      </c>
-      <c r="M39">
         <v>377</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>21442.5</v>
@@ -2703,25 +2463,19 @@
       <c r="H40">
         <v>-1.266325089576448</v>
       </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="b">
-        <v>1</v>
+      <c r="I40">
+        <v>21620.5</v>
+      </c>
+      <c r="J40">
+        <v>21208.75</v>
       </c>
       <c r="K40">
-        <v>21620.5</v>
-      </c>
-      <c r="L40">
-        <v>21208.75</v>
-      </c>
-      <c r="M40">
         <v>411.75</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>21230.5</v>
@@ -2744,25 +2498,19 @@
       <c r="H41">
         <v>0.1796775261241557</v>
       </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="b">
-        <v>1</v>
+      <c r="I41">
+        <v>21393</v>
+      </c>
+      <c r="J41">
+        <v>20980.25</v>
       </c>
       <c r="K41">
-        <v>21393</v>
-      </c>
-      <c r="L41">
-        <v>20980.25</v>
-      </c>
-      <c r="M41">
         <v>412.75</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>21249</v>
@@ -2785,25 +2533,19 @@
       <c r="H42">
         <v>-2.743427573512058</v>
       </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="b">
-        <v>1</v>
+      <c r="I42">
+        <v>21381.25</v>
+      </c>
+      <c r="J42">
+        <v>21000.25</v>
       </c>
       <c r="K42">
-        <v>21381.25</v>
-      </c>
-      <c r="L42">
-        <v>21000.25</v>
-      </c>
-      <c r="M42">
         <v>381</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>20649.5</v>
@@ -2826,25 +2568,19 @@
       <c r="H43">
         <v>1.522633245574667</v>
       </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="b">
-        <v>1</v>
+      <c r="I43">
+        <v>20785.5</v>
+      </c>
+      <c r="J43">
+        <v>20358</v>
       </c>
       <c r="K43">
-        <v>20785.5</v>
-      </c>
-      <c r="L43">
-        <v>20358</v>
-      </c>
-      <c r="M43">
         <v>427.5</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>21005.25</v>
@@ -2867,25 +2603,19 @@
       <c r="H44">
         <v>-2.15707832405172</v>
       </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="b">
-        <v>1</v>
+      <c r="I44">
+        <v>21206</v>
+      </c>
+      <c r="J44">
+        <v>20675.25</v>
       </c>
       <c r="K44">
-        <v>21206</v>
-      </c>
-      <c r="L44">
-        <v>20675.25</v>
-      </c>
-      <c r="M44">
         <v>530.75</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>20527</v>
@@ -2908,25 +2638,19 @@
       <c r="H45">
         <v>-0.3383288752091707</v>
       </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="b">
-        <v>1</v>
+      <c r="I45">
+        <v>20754</v>
+      </c>
+      <c r="J45">
+        <v>20165.75</v>
       </c>
       <c r="K45">
-        <v>20754</v>
-      </c>
-      <c r="L45">
-        <v>20165.75</v>
-      </c>
-      <c r="M45">
         <v>588.25</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>20555</v>
@@ -2949,25 +2673,19 @@
       <c r="H46">
         <v>1.303985489484782</v>
       </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="b">
-        <v>1</v>
+      <c r="I46">
+        <v>20885</v>
+      </c>
+      <c r="J46">
+        <v>20183</v>
       </c>
       <c r="K46">
-        <v>20885</v>
-      </c>
-      <c r="L46">
-        <v>20183</v>
-      </c>
-      <c r="M46">
         <v>702</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>20605.25</v>
@@ -2990,25 +2708,19 @@
       <c r="H47">
         <v>-2.786111783208323</v>
       </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" t="b">
-        <v>1</v>
+      <c r="I47">
+        <v>20944.25</v>
+      </c>
+      <c r="J47">
+        <v>20207.75</v>
       </c>
       <c r="K47">
-        <v>20944.25</v>
-      </c>
-      <c r="L47">
-        <v>20207.75</v>
-      </c>
-      <c r="M47">
         <v>736.5</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>20214.5</v>
@@ -3031,25 +2743,19 @@
       <c r="H48">
         <v>0.6993790211182516</v>
       </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="b">
-        <v>1</v>
+      <c r="I48">
+        <v>20553.5</v>
+      </c>
+      <c r="J48">
+        <v>19812</v>
       </c>
       <c r="K48">
-        <v>20553.5</v>
-      </c>
-      <c r="L48">
-        <v>19812</v>
-      </c>
-      <c r="M48">
         <v>741.5</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>20147</v>
@@ -3072,25 +2778,19 @@
       <c r="H49">
         <v>-3.84087791495199</v>
       </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="b">
-        <v>1</v>
+      <c r="I49">
+        <v>20491.5</v>
+      </c>
+      <c r="J49">
+        <v>19723.5</v>
       </c>
       <c r="K49">
-        <v>20491.5</v>
-      </c>
-      <c r="L49">
-        <v>19723.5</v>
-      </c>
-      <c r="M49">
         <v>768</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>19440</v>
@@ -3113,25 +2813,19 @@
       <c r="H50">
         <v>-0.2763105473519212</v>
       </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="b">
-        <v>1</v>
+      <c r="I50">
+        <v>19784.5</v>
+      </c>
+      <c r="J50">
+        <v>18968.75</v>
       </c>
       <c r="K50">
-        <v>19784.5</v>
-      </c>
-      <c r="L50">
-        <v>18968.75</v>
-      </c>
-      <c r="M50">
         <v>815.75</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>19412.75</v>
@@ -3154,25 +2848,19 @@
       <c r="H51">
         <v>1.13150162379505</v>
       </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="b">
-        <v>1</v>
+      <c r="I51">
+        <v>19757.25</v>
+      </c>
+      <c r="J51">
+        <v>18919.5</v>
       </c>
       <c r="K51">
-        <v>19757.25</v>
-      </c>
-      <c r="L51">
-        <v>18919.5</v>
-      </c>
-      <c r="M51">
         <v>837.75</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>19572</v>
@@ -3195,25 +2883,19 @@
       <c r="H52">
         <v>-1.883426357774554</v>
       </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="b">
-        <v>1</v>
+      <c r="I52">
+        <v>19898.75</v>
+      </c>
+      <c r="J52">
+        <v>19089.5</v>
       </c>
       <c r="K52">
-        <v>19898.75</v>
-      </c>
-      <c r="L52">
-        <v>19089.5</v>
-      </c>
-      <c r="M52">
         <v>809.25</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>19312.75</v>
@@ -3236,25 +2918,19 @@
       <c r="H53">
         <v>2.405319756870483</v>
       </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="b">
-        <v>1</v>
+      <c r="I53">
+        <v>19638.5</v>
+      </c>
+      <c r="J53">
+        <v>18851.25</v>
       </c>
       <c r="K53">
-        <v>19638.5</v>
-      </c>
-      <c r="L53">
-        <v>18851.25</v>
-      </c>
-      <c r="M53">
         <v>787.25</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B54">
         <v>19668.25</v>
@@ -3277,25 +2953,19 @@
       <c r="H54">
         <v>0.6074979707792139</v>
       </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="b">
-        <v>1</v>
+      <c r="I54">
+        <v>19988.5</v>
+      </c>
+      <c r="J54">
+        <v>19224</v>
       </c>
       <c r="K54">
-        <v>19988.5</v>
-      </c>
-      <c r="L54">
-        <v>19224</v>
-      </c>
-      <c r="M54">
         <v>764.5</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>19821</v>
@@ -3318,25 +2988,19 @@
       <c r="H55">
         <v>-1.689210483189829</v>
       </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="b">
-        <v>1</v>
+      <c r="I55">
+        <v>20133</v>
+      </c>
+      <c r="J55">
+        <v>19377.75</v>
       </c>
       <c r="K55">
-        <v>20133</v>
-      </c>
-      <c r="L55">
-        <v>19377.75</v>
-      </c>
-      <c r="M55">
         <v>755.25</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B56">
         <v>19496.75</v>
@@ -3359,25 +3023,19 @@
       <c r="H56">
         <v>1.28226499288342</v>
       </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="b">
-        <v>1</v>
+      <c r="I56">
+        <v>19799.75</v>
+      </c>
+      <c r="J56">
+        <v>19079.5</v>
       </c>
       <c r="K56">
-        <v>19799.75</v>
-      </c>
-      <c r="L56">
-        <v>19079.5</v>
-      </c>
-      <c r="M56">
         <v>720.25</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>19746.75</v>
@@ -3400,25 +3058,19 @@
       <c r="H57">
         <v>-0.3456264954992627</v>
       </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="b">
-        <v>1</v>
+      <c r="I57">
+        <v>20054.75</v>
+      </c>
+      <c r="J57">
+        <v>19335</v>
       </c>
       <c r="K57">
-        <v>20054.75</v>
-      </c>
-      <c r="L57">
-        <v>19335</v>
-      </c>
-      <c r="M57">
         <v>719.75</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B58">
         <v>19898.5</v>
@@ -3441,25 +3093,19 @@
       <c r="H58">
         <v>1.43557689864573</v>
       </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="b">
-        <v>1</v>
+      <c r="I58">
+        <v>20194.5</v>
+      </c>
+      <c r="J58">
+        <v>19518.75</v>
       </c>
       <c r="K58">
-        <v>20194.5</v>
-      </c>
-      <c r="L58">
-        <v>19518.75</v>
-      </c>
-      <c r="M58">
         <v>675.75</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B59">
         <v>20050.5</v>
@@ -3482,25 +3128,19 @@
       <c r="H59">
         <v>2.070287059766551</v>
       </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="b">
-        <v>1</v>
+      <c r="I59">
+        <v>20338.5</v>
+      </c>
+      <c r="J59">
+        <v>19726.75</v>
       </c>
       <c r="K59">
-        <v>20338.5</v>
-      </c>
-      <c r="L59">
-        <v>19726.75</v>
-      </c>
-      <c r="M59">
         <v>611.75</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>20353</v>
@@ -3523,25 +3163,19 @@
       <c r="H60">
         <v>0.5607568376750027</v>
       </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="b">
-        <v>1</v>
+      <c r="I60">
+        <v>20634</v>
+      </c>
+      <c r="J60">
+        <v>20045.5</v>
       </c>
       <c r="K60">
-        <v>20634</v>
-      </c>
-      <c r="L60">
-        <v>20045.5</v>
-      </c>
-      <c r="M60">
         <v>588.5</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>20511.5</v>
@@ -3564,25 +3198,19 @@
       <c r="H61">
         <v>-1.815652683212532</v>
       </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="b">
-        <v>1</v>
+      <c r="I61">
+        <v>20773</v>
+      </c>
+      <c r="J61">
+        <v>20204</v>
       </c>
       <c r="K61">
-        <v>20773</v>
-      </c>
-      <c r="L61">
-        <v>20204</v>
-      </c>
-      <c r="M61">
         <v>569</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B62">
         <v>20046</v>
@@ -3605,25 +3233,19 @@
       <c r="H62">
         <v>-0.6275942634156095</v>
       </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="b">
-        <v>1</v>
+      <c r="I62">
+        <v>20307.5</v>
+      </c>
+      <c r="J62">
+        <v>19746</v>
       </c>
       <c r="K62">
-        <v>20307.5</v>
-      </c>
-      <c r="L62">
-        <v>19746</v>
-      </c>
-      <c r="M62">
         <v>561.5</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B63">
         <v>19995.25</v>
@@ -3646,25 +3268,19 @@
       <c r="H63">
         <v>-2.667550430835031</v>
       </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="b">
-        <v>1</v>
+      <c r="I63">
+        <v>20248.25</v>
+      </c>
+      <c r="J63">
+        <v>19725.5</v>
       </c>
       <c r="K63">
-        <v>20248.25</v>
-      </c>
-      <c r="L63">
-        <v>19725.5</v>
-      </c>
-      <c r="M63">
         <v>522.75</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B64">
         <v>19319.75</v>
@@ -3687,25 +3303,19 @@
       <c r="H64">
         <v>-0.08994192321529759</v>
       </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="b">
-        <v>1</v>
+      <c r="I64">
+        <v>19566.25</v>
+      </c>
+      <c r="J64">
+        <v>19014.75</v>
       </c>
       <c r="K64">
-        <v>19566.25</v>
-      </c>
-      <c r="L64">
-        <v>19014.75</v>
-      </c>
-      <c r="M64">
         <v>551.5</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B65">
         <v>19411.25</v>
@@ -3728,25 +3338,19 @@
       <c r="H65">
         <v>0.8487872630468907</v>
       </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" t="b">
-        <v>1</v>
+      <c r="I65">
+        <v>19678.5</v>
+      </c>
+      <c r="J65">
+        <v>19108.5</v>
       </c>
       <c r="K65">
-        <v>19678.5</v>
-      </c>
-      <c r="L65">
-        <v>19108.5</v>
-      </c>
-      <c r="M65">
         <v>570</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B66">
         <v>19600.5</v>
@@ -3769,25 +3373,19 @@
       <c r="H66">
         <v>0.7829834986865292</v>
       </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="b">
-        <v>1</v>
+      <c r="I66">
+        <v>19854.5</v>
+      </c>
+      <c r="J66">
+        <v>19297.75</v>
       </c>
       <c r="K66">
-        <v>19854.5</v>
-      </c>
-      <c r="L66">
-        <v>19297.75</v>
-      </c>
-      <c r="M66">
         <v>556.75</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B67">
         <v>19020</v>
@@ -3810,25 +3408,19 @@
       <c r="H67">
         <v>-5.478793400141713</v>
       </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="b">
-        <v>1</v>
+      <c r="I67">
+        <v>19341.75</v>
+      </c>
+      <c r="J67">
+        <v>18700</v>
       </c>
       <c r="K67">
-        <v>19341.75</v>
-      </c>
-      <c r="L67">
-        <v>18700</v>
-      </c>
-      <c r="M67">
         <v>641.75</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B68">
         <v>18660</v>
@@ -3851,25 +3443,19 @@
       <c r="H68">
         <v>-6.085513105405482</v>
       </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="b">
-        <v>1</v>
+      <c r="I68">
+        <v>18994.75</v>
+      </c>
+      <c r="J68">
+        <v>18324</v>
       </c>
       <c r="K68">
-        <v>18994.75</v>
-      </c>
-      <c r="L68">
-        <v>18324</v>
-      </c>
-      <c r="M68">
         <v>670.75</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B69">
         <v>17100</v>
@@ -3892,25 +3478,19 @@
       <c r="H69">
         <v>0.1382632989338051</v>
       </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="b">
-        <v>1</v>
+      <c r="I69">
+        <v>17457.25</v>
+      </c>
+      <c r="J69">
+        <v>16650.5</v>
       </c>
       <c r="K69">
-        <v>17457.25</v>
-      </c>
-      <c r="L69">
-        <v>16650.5</v>
-      </c>
-      <c r="M69">
         <v>806.75</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B70">
         <v>17665</v>
@@ -3933,25 +3513,19 @@
       <c r="H70">
         <v>-1.819139396182368</v>
       </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="b">
-        <v>1</v>
+      <c r="I70">
+        <v>18307</v>
+      </c>
+      <c r="J70">
+        <v>17215.5</v>
       </c>
       <c r="K70">
-        <v>18307</v>
-      </c>
-      <c r="L70">
-        <v>17215.5</v>
-      </c>
-      <c r="M70">
         <v>1091.5</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B71">
         <v>17220.25</v>
@@ -3974,25 +3548,19 @@
       <c r="H71">
         <v>11.85936933671621</v>
       </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71" t="b">
-        <v>1</v>
+      <c r="I71">
+        <v>17862.25</v>
+      </c>
+      <c r="J71">
+        <v>16649</v>
       </c>
       <c r="K71">
-        <v>17862.25</v>
-      </c>
-      <c r="L71">
-        <v>16649</v>
-      </c>
-      <c r="M71">
         <v>1213.25</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B72">
         <v>19266.75</v>
@@ -4015,25 +3583,19 @@
       <c r="H72">
         <v>-4.169528870455574</v>
       </c>
-      <c r="I72" t="b">
-        <v>1</v>
-      </c>
-      <c r="J72" t="b">
-        <v>1</v>
+      <c r="I72">
+        <v>20142</v>
+      </c>
+      <c r="J72">
+        <v>18597.5</v>
       </c>
       <c r="K72">
-        <v>20142</v>
-      </c>
-      <c r="L72">
-        <v>18597.5</v>
-      </c>
-      <c r="M72">
         <v>1544.5</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B73">
         <v>18464.75</v>
@@ -4056,25 +3618,19 @@
       <c r="H73">
         <v>1.747409992155591</v>
       </c>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
-      <c r="J73" t="b">
-        <v>1</v>
+      <c r="I73">
+        <v>19340</v>
+      </c>
+      <c r="J73">
+        <v>17657.25</v>
       </c>
       <c r="K73">
-        <v>19340</v>
-      </c>
-      <c r="L73">
-        <v>17657.25</v>
-      </c>
-      <c r="M73">
         <v>1682.75</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B74">
         <v>19225</v>
@@ -4097,25 +3653,19 @@
       <c r="H74">
         <v>0.6765917851920822</v>
       </c>
-      <c r="I74" t="b">
-        <v>1</v>
-      </c>
-      <c r="J74" t="b">
-        <v>1</v>
+      <c r="I74">
+        <v>20140.25</v>
+      </c>
+      <c r="J74">
+        <v>18417.5</v>
       </c>
       <c r="K74">
-        <v>20140.25</v>
-      </c>
-      <c r="L74">
-        <v>18417.5</v>
-      </c>
-      <c r="M74">
         <v>1722.75</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75">
         <v>18902.5</v>
@@ -4138,25 +3688,19 @@
       <c r="H75">
         <v>0.1346730218249492</v>
       </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="b">
-        <v>1</v>
+      <c r="I75">
+        <v>19981.5</v>
+      </c>
+      <c r="J75">
+        <v>18185.75</v>
       </c>
       <c r="K75">
-        <v>19981.5</v>
-      </c>
-      <c r="L75">
-        <v>18185.75</v>
-      </c>
-      <c r="M75">
         <v>1795.75</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76">
         <v>18790</v>
@@ -4179,25 +3723,19 @@
       <c r="H76">
         <v>-3.032660434329715</v>
       </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="b">
-        <v>1</v>
+      <c r="I76">
+        <v>19761.25</v>
+      </c>
+      <c r="J76">
+        <v>18073.25</v>
       </c>
       <c r="K76">
-        <v>19761.25</v>
-      </c>
-      <c r="L76">
-        <v>18073.25</v>
-      </c>
-      <c r="M76">
         <v>1688</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77">
         <v>18391.25</v>
@@ -4220,25 +3758,19 @@
       <c r="H77">
         <v>-0.02447614255993713</v>
       </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="b">
-        <v>1</v>
+      <c r="I77">
+        <v>19362.5</v>
+      </c>
+      <c r="J77">
+        <v>17649.75</v>
       </c>
       <c r="K77">
-        <v>19362.5</v>
-      </c>
-      <c r="L77">
-        <v>17649.75</v>
-      </c>
-      <c r="M77">
         <v>1712.75</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B78">
         <v>18306.25</v>
@@ -4261,25 +3793,19 @@
       <c r="H78">
         <v>-2.494457516695459</v>
       </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="b">
-        <v>1</v>
+      <c r="I78">
+        <v>19277.5</v>
+      </c>
+      <c r="J78">
+        <v>17692.25</v>
       </c>
       <c r="K78">
-        <v>19277.5</v>
-      </c>
-      <c r="L78">
-        <v>17692.25</v>
-      </c>
-      <c r="M78">
         <v>1585.25</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B79">
         <v>17914</v>
@@ -4302,25 +3828,19 @@
       <c r="H79">
         <v>2.581986078756859</v>
       </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="b">
-        <v>1</v>
+      <c r="I79">
+        <v>18776.75</v>
+      </c>
+      <c r="J79">
+        <v>17324.5</v>
       </c>
       <c r="K79">
-        <v>18776.75</v>
-      </c>
-      <c r="L79">
-        <v>17324.5</v>
-      </c>
-      <c r="M79">
         <v>1452.25</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B80">
         <v>18646</v>
@@ -4343,25 +3863,19 @@
       <c r="H80">
         <v>2.279031819417998</v>
       </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="b">
-        <v>1</v>
+      <c r="I80">
+        <v>19403.75</v>
+      </c>
+      <c r="J80">
+        <v>18127.5</v>
       </c>
       <c r="K80">
-        <v>19403.75</v>
-      </c>
-      <c r="L80">
-        <v>18127.5</v>
-      </c>
-      <c r="M80">
         <v>1276.25</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B81">
         <v>18826.5</v>
@@ -4384,25 +3898,19 @@
       <c r="H81">
         <v>2.754733035524359</v>
       </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="b">
-        <v>1</v>
+      <c r="I81">
+        <v>19224.5</v>
+      </c>
+      <c r="J81">
+        <v>18308</v>
       </c>
       <c r="K81">
-        <v>19224.5</v>
-      </c>
-      <c r="L81">
-        <v>18308</v>
-      </c>
-      <c r="M81">
         <v>916.5</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B82">
         <v>19405</v>
@@ -4425,25 +3933,19 @@
       <c r="H82">
         <v>1.103664216954758</v>
       </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" t="b">
-        <v>1</v>
+      <c r="I82">
+        <v>19835.75</v>
+      </c>
+      <c r="J82">
+        <v>19006.5</v>
       </c>
       <c r="K82">
-        <v>19835.75</v>
-      </c>
-      <c r="L82">
-        <v>19006.5</v>
-      </c>
-      <c r="M82">
         <v>829.25</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B83">
         <v>19524.5</v>
@@ -4466,25 +3968,19 @@
       <c r="H83">
         <v>-0.03711239938061217</v>
       </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="b">
-        <v>1</v>
+      <c r="I83">
+        <v>19896.25</v>
+      </c>
+      <c r="J83">
+        <v>19126</v>
       </c>
       <c r="K83">
-        <v>19896.25</v>
-      </c>
-      <c r="L83">
-        <v>19126</v>
-      </c>
-      <c r="M83">
         <v>770.25</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B84">
         <v>19478.25</v>
@@ -4507,25 +4003,19 @@
       <c r="H84">
         <v>0.583777140516184</v>
       </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="b">
-        <v>1</v>
+      <c r="I84">
+        <v>19829.5</v>
+      </c>
+      <c r="J84">
+        <v>19064.75</v>
       </c>
       <c r="K84">
-        <v>19829.5</v>
-      </c>
-      <c r="L84">
-        <v>19064.75</v>
-      </c>
-      <c r="M84">
         <v>764.75</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B85">
         <v>19599.75</v>
@@ -4548,25 +4038,19 @@
       <c r="H85">
         <v>0.08400366561449601</v>
       </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" t="b">
-        <v>1</v>
+      <c r="I85">
+        <v>19948.25</v>
+      </c>
+      <c r="J85">
+        <v>19186.25</v>
       </c>
       <c r="K85">
-        <v>19948.25</v>
-      </c>
-      <c r="L85">
-        <v>19186.25</v>
-      </c>
-      <c r="M85">
         <v>762</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B86">
         <v>19834</v>
@@ -4589,25 +4073,19 @@
       <c r="H86">
         <v>1.079685632169292</v>
       </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" t="b">
-        <v>1</v>
+      <c r="I86">
+        <v>20208.25</v>
+      </c>
+      <c r="J86">
+        <v>19467.75</v>
       </c>
       <c r="K86">
-        <v>20208.25</v>
-      </c>
-      <c r="L86">
-        <v>19467.75</v>
-      </c>
-      <c r="M86">
         <v>740.5</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B87">
         <v>19782.5</v>
@@ -4630,25 +4108,19 @@
       <c r="H87">
         <v>1.633053608947832</v>
       </c>
-      <c r="I87" t="b">
-        <v>1</v>
-      </c>
-      <c r="J87" t="b">
-        <v>1</v>
+      <c r="I87">
+        <v>20141.5</v>
+      </c>
+      <c r="J87">
+        <v>19316.5</v>
       </c>
       <c r="K87">
-        <v>20141.5</v>
-      </c>
-      <c r="L87">
-        <v>19316.5</v>
-      </c>
-      <c r="M87">
         <v>825</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B88">
         <v>20181.5</v>
@@ -4671,25 +4143,19 @@
       <c r="H88">
         <v>-0.6919944046248516</v>
       </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="b">
-        <v>1</v>
+      <c r="I88">
+        <v>20540.5</v>
+      </c>
+      <c r="J88">
+        <v>20181.5</v>
       </c>
       <c r="K88">
-        <v>20540.5</v>
-      </c>
-      <c r="L88">
-        <v>20181.5</v>
-      </c>
-      <c r="M88">
         <v>359</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B89">
         <v>20014.25</v>
@@ -4712,25 +4178,19 @@
       <c r="H89">
         <v>-0.8925232479868317</v>
       </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="b">
-        <v>1</v>
+      <c r="I89">
+        <v>20362.75</v>
+      </c>
+      <c r="J89">
+        <v>19853.5</v>
       </c>
       <c r="K89">
-        <v>20362.75</v>
-      </c>
-      <c r="L89">
-        <v>19853.5</v>
-      </c>
-      <c r="M89">
         <v>509.25</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B90">
         <v>19809</v>
@@ -4753,25 +4213,19 @@
       <c r="H90">
         <v>0.4251251477875861</v>
       </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="b">
-        <v>1</v>
+      <c r="I90">
+        <v>20154.5</v>
+      </c>
+      <c r="J90">
+        <v>19627.25</v>
       </c>
       <c r="K90">
-        <v>20154.5</v>
-      </c>
-      <c r="L90">
-        <v>19627.25</v>
-      </c>
-      <c r="M90">
         <v>527.25</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B91">
         <v>19934.5</v>
@@ -4794,25 +4248,19 @@
       <c r="H91">
         <v>0.9368268122839529</v>
       </c>
-      <c r="I91" t="b">
-        <v>1</v>
-      </c>
-      <c r="J91" t="b">
-        <v>1</v>
+      <c r="I91">
+        <v>20244</v>
+      </c>
+      <c r="J91">
+        <v>19752.75</v>
       </c>
       <c r="K91">
-        <v>20244</v>
-      </c>
-      <c r="L91">
-        <v>19752.75</v>
-      </c>
-      <c r="M91">
         <v>491.25</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B92">
         <v>20157</v>
@@ -4835,25 +4283,19 @@
       <c r="H92">
         <v>-0.05583680762358822</v>
       </c>
-      <c r="I92" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" t="b">
-        <v>1</v>
+      <c r="I92">
+        <v>20471.75</v>
+      </c>
+      <c r="J92">
+        <v>19975.25</v>
       </c>
       <c r="K92">
-        <v>20471.75</v>
-      </c>
-      <c r="L92">
-        <v>19975.25</v>
-      </c>
-      <c r="M92">
         <v>496.5</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B93">
         <v>20398.5</v>
@@ -4876,25 +4318,19 @@
       <c r="H93">
         <v>4.032428271692301</v>
       </c>
-      <c r="I93" t="b">
-        <v>1</v>
-      </c>
-      <c r="J93" t="b">
-        <v>1</v>
+      <c r="I93">
+        <v>20724.25</v>
+      </c>
+      <c r="J93">
+        <v>20225</v>
       </c>
       <c r="K93">
-        <v>20724.25</v>
-      </c>
-      <c r="L93">
-        <v>20225</v>
-      </c>
-      <c r="M93">
         <v>499.25</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B94">
         <v>20954.75</v>
@@ -4917,25 +4353,19 @@
       <c r="H94">
         <v>1.571692821767412</v>
       </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="b">
-        <v>1</v>
+      <c r="I94">
+        <v>21315.5</v>
+      </c>
+      <c r="J94">
+        <v>20781.25</v>
       </c>
       <c r="K94">
-        <v>21315.5</v>
-      </c>
-      <c r="L94">
-        <v>20781.25</v>
-      </c>
-      <c r="M94">
         <v>534.25</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B95">
         <v>21250</v>
@@ -4958,25 +4388,19 @@
       <c r="H95">
         <v>0.53811448444403</v>
       </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="b">
-        <v>1</v>
+      <c r="I95">
+        <v>21582.5</v>
+      </c>
+      <c r="J95">
+        <v>21076.5</v>
       </c>
       <c r="K95">
-        <v>21582.5</v>
-      </c>
-      <c r="L95">
-        <v>21076.5</v>
-      </c>
-      <c r="M95">
         <v>506</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>21379.75</v>
@@ -4999,25 +4423,19 @@
       <c r="H96">
         <v>0.03622764987729621</v>
       </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="b">
-        <v>1</v>
+      <c r="I96">
+        <v>21691</v>
+      </c>
+      <c r="J96">
+        <v>21206.25</v>
       </c>
       <c r="K96">
-        <v>21691</v>
-      </c>
-      <c r="L96">
-        <v>21206.25</v>
-      </c>
-      <c r="M96">
         <v>484.75</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B97">
         <v>21396</v>
@@ -5040,25 +4458,19 @@
       <c r="H97">
         <v>0.4941531056880111</v>
       </c>
-      <c r="I97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J97" t="b">
-        <v>1</v>
+      <c r="I97">
+        <v>21685.75</v>
+      </c>
+      <c r="J97">
+        <v>21222.5</v>
       </c>
       <c r="K97">
-        <v>21685.75</v>
-      </c>
-      <c r="L97">
-        <v>21222.5</v>
-      </c>
-      <c r="M97">
         <v>463.25</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B98">
         <v>21310.75</v>
@@ -5081,25 +4493,19 @@
       <c r="H98">
         <v>0.09764716823212893</v>
       </c>
-      <c r="I98" t="b">
-        <v>1</v>
-      </c>
-      <c r="J98" t="b">
-        <v>1</v>
+      <c r="I98">
+        <v>21577.75</v>
+      </c>
+      <c r="J98">
+        <v>21130.75</v>
       </c>
       <c r="K98">
-        <v>21577.75</v>
-      </c>
-      <c r="L98">
-        <v>21130.75</v>
-      </c>
-      <c r="M98">
         <v>447</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B99">
         <v>21513</v>
@@ -5122,25 +4528,19 @@
       <c r="H99">
         <v>-0.3704649974450636</v>
       </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" t="b">
-        <v>1</v>
+      <c r="I99">
+        <v>21783.5</v>
+      </c>
+      <c r="J99">
+        <v>21355.75</v>
       </c>
       <c r="K99">
-        <v>21783.5</v>
-      </c>
-      <c r="L99">
-        <v>21355.75</v>
-      </c>
-      <c r="M99">
         <v>427.75</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>21414.75</v>
@@ -5163,25 +4563,19 @@
       <c r="H100">
         <v>-1.354486006364453</v>
       </c>
-      <c r="I100" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" t="b">
-        <v>1</v>
+      <c r="I100">
+        <v>21679.5</v>
+      </c>
+      <c r="J100">
+        <v>21246</v>
       </c>
       <c r="K100">
-        <v>21679.5</v>
-      </c>
-      <c r="L100">
-        <v>21246</v>
-      </c>
-      <c r="M100">
         <v>433.5</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B101">
         <v>21145</v>
@@ -5204,25 +4598,19 @@
       <c r="H101">
         <v>0.1016224136504817</v>
       </c>
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" t="b">
-        <v>1</v>
+      <c r="I101">
+        <v>21405.5</v>
+      </c>
+      <c r="J101">
+        <v>20922.25</v>
       </c>
       <c r="K101">
-        <v>21405.5</v>
-      </c>
-      <c r="L101">
-        <v>20922.25</v>
-      </c>
-      <c r="M101">
         <v>483.25</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>21223.75</v>
@@ -5245,25 +4633,19 @@
       <c r="H102">
         <v>-0.959711024281984</v>
       </c>
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" t="b">
-        <v>1</v>
+      <c r="I102">
+        <v>21476</v>
+      </c>
+      <c r="J102">
+        <v>20968</v>
       </c>
       <c r="K102">
-        <v>21476</v>
-      </c>
-      <c r="L102">
-        <v>20968</v>
-      </c>
-      <c r="M102">
         <v>508</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>20978</v>
@@ -5286,25 +4668,19 @@
       <c r="H103">
         <v>1.470798569725873</v>
       </c>
-      <c r="I103" t="b">
-        <v>1</v>
-      </c>
-      <c r="J103" t="b">
-        <v>1</v>
+      <c r="I103">
+        <v>21202</v>
+      </c>
+      <c r="J103">
+        <v>20692</v>
       </c>
       <c r="K103">
-        <v>21202</v>
-      </c>
-      <c r="L103">
-        <v>20692</v>
-      </c>
-      <c r="M103">
         <v>510</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>21281.25</v>
@@ -5327,25 +4703,19 @@
       <c r="H104">
         <v>0.8316301360208556</v>
       </c>
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" t="b">
-        <v>1</v>
+      <c r="I104">
+        <v>21485.25</v>
+      </c>
+      <c r="J104">
+        <v>20995.25</v>
       </c>
       <c r="K104">
-        <v>21485.25</v>
-      </c>
-      <c r="L104">
-        <v>20995.25</v>
-      </c>
-      <c r="M104">
         <v>490</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B105">
         <v>21480</v>
@@ -5368,25 +4738,19 @@
       <c r="H105">
         <v>-0.3762726870296551</v>
       </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="b">
-        <v>1</v>
+      <c r="I105">
+        <v>21702.75</v>
+      </c>
+      <c r="J105">
+        <v>21194</v>
       </c>
       <c r="K105">
-        <v>21702.75</v>
-      </c>
-      <c r="L105">
-        <v>21194</v>
-      </c>
-      <c r="M105">
         <v>508.75</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B106">
         <v>21513</v>
@@ -5409,25 +4773,19 @@
       <c r="H106">
         <v>0.1344730410785866</v>
       </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="b">
-        <v>1</v>
+      <c r="I106">
+        <v>21734.25</v>
+      </c>
+      <c r="J106">
+        <v>21256.5</v>
       </c>
       <c r="K106">
-        <v>21734.25</v>
-      </c>
-      <c r="L106">
-        <v>21256.5</v>
-      </c>
-      <c r="M106">
         <v>477.75</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B107">
         <v>21371.25</v>
@@ -5450,25 +4808,19 @@
       <c r="H107">
         <v>-0.1483055795595156</v>
       </c>
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" t="b">
-        <v>1</v>
+      <c r="I107">
+        <v>21615.25</v>
+      </c>
+      <c r="J107">
+        <v>21090</v>
       </c>
       <c r="K107">
-        <v>21615.25</v>
-      </c>
-      <c r="L107">
-        <v>21090</v>
-      </c>
-      <c r="M107">
         <v>525.25</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B108">
         <v>21303.75</v>
@@ -5491,25 +4843,19 @@
       <c r="H108">
         <v>0.7379512788426634</v>
       </c>
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="J108" t="b">
-        <v>1</v>
+      <c r="I108">
+        <v>21535.75</v>
+      </c>
+      <c r="J108">
+        <v>21022.5</v>
       </c>
       <c r="K108">
-        <v>21535.75</v>
-      </c>
-      <c r="L108">
-        <v>21022.5</v>
-      </c>
-      <c r="M108">
         <v>513.25</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B109">
         <v>21555</v>
@@ -5532,25 +4878,19 @@
       <c r="H109">
         <v>0.7963964800668633</v>
       </c>
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J109" t="b">
-        <v>1</v>
+      <c r="I109">
+        <v>21797</v>
+      </c>
+      <c r="J109">
+        <v>21248.5</v>
       </c>
       <c r="K109">
-        <v>21797</v>
-      </c>
-      <c r="L109">
-        <v>21248.5</v>
-      </c>
-      <c r="M109">
         <v>548.5</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B110">
         <v>21688.25</v>
@@ -5573,25 +4913,19 @@
       <c r="H110">
         <v>0.2787247765594802</v>
       </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J110" t="b">
-        <v>1</v>
+      <c r="I110">
+        <v>21931</v>
+      </c>
+      <c r="J110">
+        <v>21390</v>
       </c>
       <c r="K110">
-        <v>21931</v>
-      </c>
-      <c r="L110">
-        <v>21390</v>
-      </c>
-      <c r="M110">
         <v>541</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B111">
         <v>21744.75</v>
@@ -5614,25 +4948,19 @@
       <c r="H111">
         <v>-0.8464842762961444</v>
       </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="b">
-        <v>1</v>
+      <c r="I111">
+        <v>21972</v>
+      </c>
+      <c r="J111">
+        <v>21446.5</v>
       </c>
       <c r="K111">
-        <v>21972</v>
-      </c>
-      <c r="L111">
-        <v>21446.5</v>
-      </c>
-      <c r="M111">
         <v>525.5</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B112">
         <v>21471</v>
@@ -5655,25 +4983,19 @@
       <c r="H112">
         <v>0.9602798596068496</v>
       </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="b">
-        <v>1</v>
+      <c r="I112">
+        <v>21698.25</v>
+      </c>
+      <c r="J112">
+        <v>21190.25</v>
       </c>
       <c r="K112">
-        <v>21698.25</v>
-      </c>
-      <c r="L112">
-        <v>21190.25</v>
-      </c>
-      <c r="M112">
         <v>508</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B113">
         <v>21799.25</v>
@@ -5696,25 +5018,19 @@
       <c r="H113">
         <v>0.1468597260148252</v>
       </c>
-      <c r="I113" t="b">
-        <v>1</v>
-      </c>
-      <c r="J113" t="b">
-        <v>1</v>
+      <c r="I113">
+        <v>22032</v>
+      </c>
+      <c r="J113">
+        <v>21518.5</v>
       </c>
       <c r="K113">
-        <v>22032</v>
-      </c>
-      <c r="L113">
-        <v>21518.5</v>
-      </c>
-      <c r="M113">
         <v>513.5</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B114">
         <v>21824</v>
@@ -5737,25 +5053,19 @@
       <c r="H114">
         <v>0.6461517310909048</v>
       </c>
-      <c r="I114" t="b">
-        <v>1</v>
-      </c>
-      <c r="J114" t="b">
-        <v>1</v>
+      <c r="I114">
+        <v>22037.25</v>
+      </c>
+      <c r="J114">
+        <v>21543.25</v>
       </c>
       <c r="K114">
-        <v>22037.25</v>
-      </c>
-      <c r="L114">
-        <v>21543.25</v>
-      </c>
-      <c r="M114">
         <v>494</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B115">
         <v>21945.75</v>
@@ -5778,25 +5088,19 @@
       <c r="H115">
         <v>-0.3414911781445595</v>
       </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="b">
-        <v>1</v>
+      <c r="I115">
+        <v>22154</v>
+      </c>
+      <c r="J115">
+        <v>21608.5</v>
       </c>
       <c r="K115">
-        <v>22154</v>
-      </c>
-      <c r="L115">
-        <v>21608.5</v>
-      </c>
-      <c r="M115">
         <v>545.5</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B116">
         <v>21871</v>
@@ -5819,25 +5123,19 @@
       <c r="H116">
         <v>0.2055968018275234</v>
       </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="b">
-        <v>1</v>
+      <c r="I116">
+        <v>22079.25</v>
+      </c>
+      <c r="J116">
+        <v>21616.5</v>
       </c>
       <c r="K116">
-        <v>22079.25</v>
-      </c>
-      <c r="L116">
-        <v>21616.5</v>
-      </c>
-      <c r="M116">
         <v>462.75</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B117">
         <v>21909</v>
@@ -5860,25 +5158,19 @@
       <c r="H117">
         <v>-1.314259660321437</v>
       </c>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" t="b">
-        <v>1</v>
+      <c r="I117">
+        <v>22107.5</v>
+      </c>
+      <c r="J117">
+        <v>21654.5</v>
       </c>
       <c r="K117">
-        <v>22107.5</v>
-      </c>
-      <c r="L117">
-        <v>21654.5</v>
-      </c>
-      <c r="M117">
         <v>453</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B118">
         <v>21554</v>
@@ -5901,25 +5193,19 @@
       <c r="H118">
         <v>1.373343959712159</v>
       </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="b">
-        <v>1</v>
+      <c r="I118">
+        <v>21738.75</v>
+      </c>
+      <c r="J118">
+        <v>21283.25</v>
       </c>
       <c r="K118">
-        <v>21738.75</v>
-      </c>
-      <c r="L118">
-        <v>21283.25</v>
-      </c>
-      <c r="M118">
         <v>455.5</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B119">
         <v>21950</v>
@@ -5942,25 +5228,19 @@
       <c r="H119">
         <v>-0.9616480185948961</v>
       </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="b">
-        <v>1</v>
+      <c r="I119">
+        <v>22150.25</v>
+      </c>
+      <c r="J119">
+        <v>21679.25</v>
       </c>
       <c r="K119">
-        <v>22150.25</v>
-      </c>
-      <c r="L119">
-        <v>21679.25</v>
-      </c>
-      <c r="M119">
         <v>471</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B120">
         <v>21705</v>
@@ -5983,25 +5263,19 @@
       <c r="H120">
         <v>-0.04716872598421462</v>
       </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="b">
-        <v>1</v>
+      <c r="I120">
+        <v>21923.25</v>
+      </c>
+      <c r="J120">
+        <v>21456.5</v>
       </c>
       <c r="K120">
-        <v>21923.25</v>
-      </c>
-      <c r="L120">
-        <v>21456.5</v>
-      </c>
-      <c r="M120">
         <v>466.75</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B121">
         <v>21731</v>
@@ -6024,25 +5298,19 @@
       <c r="H121">
         <v>-1.084241663885088</v>
       </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="b">
-        <v>1</v>
+      <c r="I121">
+        <v>21939.25</v>
+      </c>
+      <c r="J121">
+        <v>21497.75</v>
       </c>
       <c r="K121">
-        <v>21939.25</v>
-      </c>
-      <c r="L121">
-        <v>21497.75</v>
-      </c>
-      <c r="M121">
         <v>441.5</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B122">
         <v>21748.25</v>
@@ -6065,25 +5333,19 @@
       <c r="H122">
         <v>1.675607116675781</v>
       </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="b">
-        <v>1</v>
+      <c r="I122">
+        <v>21943.25</v>
+      </c>
+      <c r="J122">
+        <v>21522.5</v>
       </c>
       <c r="K122">
-        <v>21943.25</v>
-      </c>
-      <c r="L122">
-        <v>21522.5</v>
-      </c>
-      <c r="M122">
         <v>420.75</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B123">
         <v>21648.25</v>
@@ -6106,25 +5368,19 @@
       <c r="H123">
         <v>1.047162361665843</v>
       </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="b">
-        <v>1</v>
+      <c r="I123">
+        <v>21872</v>
+      </c>
+      <c r="J123">
+        <v>21422.5</v>
       </c>
       <c r="K123">
-        <v>21872</v>
-      </c>
-      <c r="L123">
-        <v>21422.5</v>
-      </c>
-      <c r="M123">
         <v>449.5</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B124">
         <v>22079</v>
@@ -6147,25 +5403,19 @@
       <c r="H124">
         <v>1.536910775364131</v>
       </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="b">
-        <v>1</v>
+      <c r="I124">
+        <v>22339</v>
+      </c>
+      <c r="J124">
+        <v>21853.25</v>
       </c>
       <c r="K124">
-        <v>22339</v>
-      </c>
-      <c r="L124">
-        <v>21853.25</v>
-      </c>
-      <c r="M124">
         <v>485.75</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B125">
         <v>22412</v>
@@ -6188,25 +5438,19 @@
       <c r="H125">
         <v>0.2152792495343059</v>
       </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="b">
-        <v>1</v>
+      <c r="I125">
+        <v>22672</v>
+      </c>
+      <c r="J125">
+        <v>22182.75</v>
       </c>
       <c r="K125">
-        <v>22672</v>
-      </c>
-      <c r="L125">
-        <v>22182.75</v>
-      </c>
-      <c r="M125">
         <v>489.25</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B126">
         <v>22461.25</v>
@@ -6229,25 +5473,19 @@
       <c r="H126">
         <v>0.927162637460488</v>
       </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="b">
-        <v>1</v>
+      <c r="I126">
+        <v>22710</v>
+      </c>
+      <c r="J126">
+        <v>22232</v>
       </c>
       <c r="K126">
-        <v>22710</v>
-      </c>
-      <c r="L126">
-        <v>22232</v>
-      </c>
-      <c r="M126">
         <v>478</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B127">
         <v>22676.25</v>
@@ -6270,25 +5508,19 @@
       <c r="H127">
         <v>0.3628262955325035</v>
       </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="b">
-        <v>1</v>
+      <c r="I127">
+        <v>22914.5</v>
+      </c>
+      <c r="J127">
+        <v>22484</v>
       </c>
       <c r="K127">
-        <v>22914.5</v>
-      </c>
-      <c r="L127">
-        <v>22484</v>
-      </c>
-      <c r="M127">
         <v>430.5</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B128">
         <v>22751.5</v>
@@ -6311,25 +5543,19 @@
       <c r="H128">
         <v>0.6230358437905092</v>
       </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="b">
-        <v>1</v>
+      <c r="I128">
+        <v>22963.25</v>
+      </c>
+      <c r="J128">
+        <v>22559.25</v>
       </c>
       <c r="K128">
-        <v>22963.25</v>
-      </c>
-      <c r="L128">
-        <v>22559.25</v>
-      </c>
-      <c r="M128">
         <v>404</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B129">
         <v>22867.5</v>
@@ -6352,25 +5578,19 @@
       <c r="H129">
         <v>-0.875804003363434</v>
       </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="b">
-        <v>1</v>
+      <c r="I129">
+        <v>23068.25</v>
+      </c>
+      <c r="J129">
+        <v>22664.75</v>
       </c>
       <c r="K129">
-        <v>23068.25</v>
-      </c>
-      <c r="L129">
-        <v>22664.75</v>
-      </c>
-      <c r="M129">
         <v>403.5</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B130">
         <v>22694.5</v>
@@ -6393,25 +5613,19 @@
       <c r="H130">
         <v>0.6621057386169582</v>
       </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="b">
-        <v>1</v>
+      <c r="I130">
+        <v>22901.5</v>
+      </c>
+      <c r="J130">
+        <v>22484</v>
       </c>
       <c r="K130">
-        <v>22901.5</v>
-      </c>
-      <c r="L130">
-        <v>22484</v>
-      </c>
-      <c r="M130">
         <v>417.5</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B131">
         <v>22845</v>
@@ -6434,25 +5648,19 @@
       <c r="H131">
         <v>0.9609070612441428</v>
       </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="b">
-        <v>1</v>
+      <c r="I131">
+        <v>23049.75</v>
+      </c>
+      <c r="J131">
+        <v>22626.75</v>
       </c>
       <c r="K131">
-        <v>23049.75</v>
-      </c>
-      <c r="L131">
-        <v>22626.75</v>
-      </c>
-      <c r="M131">
         <v>423</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B132">
         <v>23059.25</v>
@@ -6475,25 +5683,19 @@
       <c r="H132">
         <v>-0.6753387533875332</v>
       </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="b">
-        <v>1</v>
+      <c r="I132">
+        <v>23254.5</v>
+      </c>
+      <c r="J132">
+        <v>22841</v>
       </c>
       <c r="K132">
-        <v>23254.5</v>
-      </c>
-      <c r="L132">
-        <v>22841</v>
-      </c>
-      <c r="M132">
         <v>413.5</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B133">
         <v>22970</v>
@@ -6516,25 +5718,19 @@
       <c r="H133">
         <v>-0.09604155980224016</v>
       </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="b">
-        <v>1</v>
+      <c r="I133">
+        <v>23142</v>
+      </c>
+      <c r="J133">
+        <v>22799.25</v>
       </c>
       <c r="K133">
-        <v>23142</v>
-      </c>
-      <c r="L133">
-        <v>22799.25</v>
-      </c>
-      <c r="M133">
         <v>342.75</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B134">
         <v>22837.75</v>
@@ -6557,25 +5753,19 @@
       <c r="H134">
         <v>0.05243666633893973</v>
       </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="b">
-        <v>1</v>
+      <c r="I134">
+        <v>22994.75</v>
+      </c>
+      <c r="J134">
+        <v>22667.5</v>
       </c>
       <c r="K134">
-        <v>22994.75</v>
-      </c>
-      <c r="L134">
-        <v>22667.5</v>
-      </c>
-      <c r="M134">
         <v>327.25</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B135">
         <v>22906.5</v>
@@ -6598,25 +5788,19 @@
       <c r="H135">
         <v>0.6813194012250667</v>
       </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="b">
-        <v>1</v>
+      <c r="I135">
+        <v>23063.75</v>
+      </c>
+      <c r="J135">
+        <v>22736.25</v>
       </c>
       <c r="K135">
-        <v>23063.75</v>
-      </c>
-      <c r="L135">
-        <v>22736.25</v>
-      </c>
-      <c r="M135">
         <v>327.5</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B136">
         <v>23041</v>
@@ -6639,25 +5823,19 @@
       <c r="H136">
         <v>-0.1713461517606318</v>
       </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="b">
-        <v>1</v>
+      <c r="I136">
+        <v>23199.5</v>
+      </c>
+      <c r="J136">
+        <v>22870.75</v>
       </c>
       <c r="K136">
-        <v>23199.5</v>
-      </c>
-      <c r="L136">
-        <v>22870.75</v>
-      </c>
-      <c r="M136">
         <v>328.75</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B137">
         <v>23011.75</v>
@@ -6680,25 +5858,19 @@
       <c r="H137">
         <v>-0.2357337620718547</v>
       </c>
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" t="b">
-        <v>1</v>
+      <c r="I137">
+        <v>23171.25</v>
+      </c>
+      <c r="J137">
+        <v>22852</v>
       </c>
       <c r="K137">
-        <v>23171.25</v>
-      </c>
-      <c r="L137">
-        <v>22852</v>
-      </c>
-      <c r="M137">
         <v>319.25</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B138">
         <v>22860.75</v>
@@ -6721,25 +5893,19 @@
       <c r="H138">
         <v>0.3332026656213349</v>
       </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="b">
-        <v>1</v>
+      <c r="I138">
+        <v>23028.75</v>
+      </c>
+      <c r="J138">
+        <v>22703.25</v>
       </c>
       <c r="K138">
-        <v>23028.75</v>
-      </c>
-      <c r="L138">
-        <v>22703.25</v>
-      </c>
-      <c r="M138">
         <v>325.5</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B139">
         <v>23034.25</v>
@@ -6762,25 +5928,19 @@
       <c r="H139">
         <v>0.09224892014498831</v>
       </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="b">
-        <v>1</v>
+      <c r="I139">
+        <v>23204.75</v>
+      </c>
+      <c r="J139">
+        <v>22892</v>
       </c>
       <c r="K139">
-        <v>23204.75</v>
-      </c>
-      <c r="L139">
-        <v>22892</v>
-      </c>
-      <c r="M139">
         <v>312.75</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B140">
         <v>23018.75</v>
@@ -6803,25 +5963,19 @@
       <c r="H140">
         <v>0.08565821288777364</v>
       </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="b">
-        <v>1</v>
+      <c r="I140">
+        <v>23182.25</v>
+      </c>
+      <c r="J140">
+        <v>22876.5</v>
       </c>
       <c r="K140">
-        <v>23182.25</v>
-      </c>
-      <c r="L140">
-        <v>22876.5</v>
-      </c>
-      <c r="M140">
         <v>305.75</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:11">
       <c r="A141" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B141">
         <v>23065.5</v>
@@ -6844,25 +5998,19 @@
       <c r="H141">
         <v>0.7561805299763913</v>
       </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="b">
-        <v>1</v>
+      <c r="I141">
+        <v>23227.5</v>
+      </c>
+      <c r="J141">
+        <v>22923.25</v>
       </c>
       <c r="K141">
-        <v>23227.5</v>
-      </c>
-      <c r="L141">
-        <v>22923.25</v>
-      </c>
-      <c r="M141">
         <v>304.25</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B142">
         <v>23261.25</v>
@@ -6885,25 +6033,19 @@
       <c r="H142">
         <v>-0.1150488151047235</v>
       </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="b">
-        <v>1</v>
+      <c r="I142">
+        <v>23426.25</v>
+      </c>
+      <c r="J142">
+        <v>23112.5</v>
       </c>
       <c r="K142">
-        <v>23426.25</v>
-      </c>
-      <c r="L142">
-        <v>23112.5</v>
-      </c>
-      <c r="M142">
         <v>313.75</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B143">
         <v>23232.5</v>
@@ -6926,25 +6068,19 @@
       <c r="H143">
         <v>0.5070131435891412</v>
       </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="b">
-        <v>1</v>
+      <c r="I143">
+        <v>23397.5</v>
+      </c>
+      <c r="J143">
+        <v>23106</v>
       </c>
       <c r="K143">
-        <v>23397.5</v>
-      </c>
-      <c r="L143">
-        <v>23106</v>
-      </c>
-      <c r="M143">
         <v>291.5</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B144">
         <v>23339.5</v>
@@ -6967,25 +6103,19 @@
       <c r="H144">
         <v>-0.4958872418815874</v>
       </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="b">
-        <v>1</v>
+      <c r="I144">
+        <v>23511</v>
+      </c>
+      <c r="J144">
+        <v>23213</v>
       </c>
       <c r="K144">
-        <v>23511</v>
-      </c>
-      <c r="L144">
-        <v>23213</v>
-      </c>
-      <c r="M144">
         <v>298</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B145">
         <v>23191.25</v>
@@ -7008,25 +6138,19 @@
       <c r="H145">
         <v>0.363812496636351</v>
       </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="b">
-        <v>1</v>
+      <c r="I145">
+        <v>23360.25</v>
+      </c>
+      <c r="J145">
+        <v>23052.25</v>
       </c>
       <c r="K145">
-        <v>23360.25</v>
-      </c>
-      <c r="L145">
-        <v>23052.25</v>
-      </c>
-      <c r="M145">
         <v>308</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B146">
         <v>23402.25</v>
@@ -7049,25 +6173,19 @@
       <c r="H146">
         <v>0.2863485730832283</v>
       </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="b">
-        <v>1</v>
+      <c r="I146">
+        <v>23574</v>
+      </c>
+      <c r="J146">
+        <v>23259.75</v>
       </c>
       <c r="K146">
-        <v>23574</v>
-      </c>
-      <c r="L146">
-        <v>23259.75</v>
-      </c>
-      <c r="M146">
         <v>314.25</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B147">
         <v>23391.5</v>
@@ -7090,25 +6208,19 @@
       <c r="H147">
         <v>0.1871457598117798</v>
       </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="b">
-        <v>1</v>
+      <c r="I147">
+        <v>23563.25</v>
+      </c>
+      <c r="J147">
+        <v>23269.75</v>
       </c>
       <c r="K147">
-        <v>23563.25</v>
-      </c>
-      <c r="L147">
-        <v>23269.75</v>
-      </c>
-      <c r="M147">
         <v>293.5</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B148">
         <v>23520</v>
@@ -7131,25 +6243,19 @@
       <c r="H148">
         <v>0.2988738858942241</v>
       </c>
-      <c r="I148" t="b">
-        <v>1</v>
-      </c>
-      <c r="J148" t="b">
-        <v>1</v>
+      <c r="I148">
+        <v>23678.25</v>
+      </c>
+      <c r="J148">
+        <v>23398.25</v>
       </c>
       <c r="K148">
-        <v>23678.25</v>
-      </c>
-      <c r="L148">
-        <v>23398.25</v>
-      </c>
-      <c r="M148">
         <v>280</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B149">
         <v>23504.25</v>
@@ -7172,25 +6278,19 @@
       <c r="H149">
         <v>-0.1670834885329597</v>
       </c>
-      <c r="I149" t="b">
-        <v>1</v>
-      </c>
-      <c r="J149" t="b">
-        <v>1</v>
+      <c r="I149">
+        <v>23663.25</v>
+      </c>
+      <c r="J149">
+        <v>23387.5</v>
       </c>
       <c r="K149">
-        <v>23663.25</v>
-      </c>
-      <c r="L149">
-        <v>23387.5</v>
-      </c>
-      <c r="M149">
         <v>275.75</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B150">
         <v>23452</v>
@@ -7213,25 +6313,19 @@
       <c r="H150">
         <v>0.1215248166467786</v>
       </c>
-      <c r="I150" t="b">
-        <v>1</v>
-      </c>
-      <c r="J150" t="b">
-        <v>1</v>
+      <c r="I150">
+        <v>23605.5</v>
+      </c>
+      <c r="J150">
+        <v>23327.25</v>
       </c>
       <c r="K150">
-        <v>23605.5</v>
-      </c>
-      <c r="L150">
-        <v>23327.25</v>
-      </c>
-      <c r="M150">
         <v>278.25</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B151">
         <v>23705</v>
@@ -7254,25 +6348,19 @@
       <c r="H151">
         <v>-0.4918975319946339</v>
       </c>
-      <c r="I151" t="b">
-        <v>1</v>
-      </c>
-      <c r="J151" t="b">
-        <v>1</v>
+      <c r="I151">
+        <v>23870.5</v>
+      </c>
+      <c r="J151">
+        <v>23580.25</v>
       </c>
       <c r="K151">
-        <v>23870.5</v>
-      </c>
-      <c r="L151">
-        <v>23580.25</v>
-      </c>
-      <c r="M151">
         <v>290.25</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B152">
         <v>23322</v>
@@ -7295,25 +6383,19 @@
       <c r="H152">
         <v>-2.059704686496899</v>
       </c>
-      <c r="I152" t="b">
-        <v>1</v>
-      </c>
-      <c r="J152" t="b">
-        <v>1</v>
+      <c r="I152">
+        <v>23487.5</v>
+      </c>
+      <c r="J152">
+        <v>23142.25</v>
       </c>
       <c r="K152">
-        <v>23487.5</v>
-      </c>
-      <c r="L152">
-        <v>23142.25</v>
-      </c>
-      <c r="M152">
         <v>345.25</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B153">
         <v>22850</v>
@@ -7336,25 +6418,19 @@
       <c r="H153">
         <v>1.80368165182716</v>
       </c>
-      <c r="I153" t="b">
-        <v>1</v>
-      </c>
-      <c r="J153" t="b">
-        <v>1</v>
+      <c r="I153">
+        <v>23020.5</v>
+      </c>
+      <c r="J153">
+        <v>22635.75</v>
       </c>
       <c r="K153">
-        <v>23020.5</v>
-      </c>
-      <c r="L153">
-        <v>22635.75</v>
-      </c>
-      <c r="M153">
         <v>384.75</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B154">
         <v>23354</v>
@@ -7377,25 +6453,19 @@
       <c r="H154">
         <v>-0.7061146524156015</v>
       </c>
-      <c r="I154" t="b">
-        <v>1</v>
-      </c>
-      <c r="J154" t="b">
-        <v>1</v>
+      <c r="I154">
+        <v>23572.25</v>
+      </c>
+      <c r="J154">
+        <v>23132</v>
       </c>
       <c r="K154">
-        <v>23572.25</v>
-      </c>
-      <c r="L154">
-        <v>23132</v>
-      </c>
-      <c r="M154">
         <v>440.25</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:11">
       <c r="A155" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B155">
         <v>23091.75</v>
@@ -7418,25 +6488,19 @@
       <c r="H155">
         <v>1.256916825177234</v>
       </c>
-      <c r="I155" t="b">
-        <v>1</v>
-      </c>
-      <c r="J155" t="b">
-        <v>1</v>
+      <c r="I155">
+        <v>23321.25</v>
+      </c>
+      <c r="J155">
+        <v>22870.5</v>
       </c>
       <c r="K155">
-        <v>23321.25</v>
-      </c>
-      <c r="L155">
-        <v>22870.5</v>
-      </c>
-      <c r="M155">
         <v>450.75</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:11">
       <c r="A156" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B156">
         <v>23418.5</v>
@@ -7459,25 +6523,19 @@
       <c r="H156">
         <v>0.3137974832160939</v>
       </c>
-      <c r="I156" t="b">
-        <v>1</v>
-      </c>
-      <c r="J156" t="b">
-        <v>1</v>
+      <c r="I156">
+        <v>23658.75</v>
+      </c>
+      <c r="J156">
+        <v>23170.25</v>
       </c>
       <c r="K156">
-        <v>23658.75</v>
-      </c>
-      <c r="L156">
-        <v>23170.25</v>
-      </c>
-      <c r="M156">
         <v>488.5</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B157">
         <v>23518.25</v>
@@ -7500,25 +6558,19 @@
       <c r="H157">
         <v>0.9256796297281378</v>
       </c>
-      <c r="I157" t="b">
-        <v>1</v>
-      </c>
-      <c r="J157" t="b">
-        <v>1</v>
+      <c r="I157">
+        <v>23792</v>
+      </c>
+      <c r="J157">
+        <v>23270</v>
       </c>
       <c r="K157">
-        <v>23792</v>
-      </c>
-      <c r="L157">
-        <v>23270</v>
-      </c>
-      <c r="M157">
         <v>522</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B158">
         <v>23764</v>
@@ -7541,25 +6593,19 @@
       <c r="H158">
         <v>-0.355279110220863</v>
       </c>
-      <c r="I158" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" t="b">
-        <v>1</v>
+      <c r="I158">
+        <v>24019.25</v>
+      </c>
+      <c r="J158">
+        <v>23479</v>
       </c>
       <c r="K158">
-        <v>24019.25</v>
-      </c>
-      <c r="L158">
-        <v>23479</v>
-      </c>
-      <c r="M158">
         <v>540.25</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:11">
       <c r="A159" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B159">
         <v>23635</v>
@@ -7582,25 +6628,19 @@
       <c r="H159">
         <v>1.305571425548568</v>
       </c>
-      <c r="I159" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" t="b">
-        <v>1</v>
+      <c r="I159">
+        <v>23890.25</v>
+      </c>
+      <c r="J159">
+        <v>23352.25</v>
       </c>
       <c r="K159">
-        <v>23890.25</v>
-      </c>
-      <c r="L159">
-        <v>23352.25</v>
-      </c>
-      <c r="M159">
         <v>538</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B160">
         <v>23945</v>
@@ -7623,25 +6663,19 @@
       <c r="H160">
         <v>0.03550839669146377</v>
       </c>
-      <c r="I160" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" t="b">
-        <v>1</v>
+      <c r="I160">
+        <v>24203.5</v>
+      </c>
+      <c r="J160">
+        <v>23662.25</v>
       </c>
       <c r="K160">
-        <v>24203.5</v>
-      </c>
-      <c r="L160">
-        <v>23662.25</v>
-      </c>
-      <c r="M160">
         <v>541.25</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:11">
       <c r="A161" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B161">
         <v>23927.75</v>
@@ -7664,25 +6698,19 @@
       <c r="H161">
         <v>-0.0668156097968442</v>
       </c>
-      <c r="I161" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" t="b">
-        <v>1</v>
+      <c r="I161">
+        <v>24164</v>
+      </c>
+      <c r="J161">
+        <v>23676.75</v>
       </c>
       <c r="K161">
-        <v>24164</v>
-      </c>
-      <c r="L161">
-        <v>23676.75</v>
-      </c>
-      <c r="M161">
         <v>487.25</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:11">
       <c r="A162" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B162">
         <v>23888.75</v>
@@ -7705,25 +6733,19 @@
       <c r="H162">
         <v>-0.5286141116984555</v>
       </c>
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" t="b">
-        <v>1</v>
+      <c r="I162">
+        <v>24112.25</v>
+      </c>
+      <c r="J162">
+        <v>23705.75</v>
       </c>
       <c r="K162">
-        <v>24112.25</v>
-      </c>
-      <c r="L162">
-        <v>23705.75</v>
-      </c>
-      <c r="M162">
         <v>406.5</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B163">
         <v>23795</v>
@@ -7746,25 +6768,19 @@
       <c r="H163">
         <v>-0.02625609141321261</v>
       </c>
-      <c r="I163" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" t="b">
-        <v>1</v>
+      <c r="I163">
+        <v>23995.25</v>
+      </c>
+      <c r="J163">
+        <v>23621.25</v>
       </c>
       <c r="K163">
-        <v>23995.25</v>
-      </c>
-      <c r="L163">
-        <v>23621.25</v>
-      </c>
-      <c r="M163">
         <v>374</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:11">
       <c r="A164" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B164">
         <v>23800.75</v>
@@ -7787,25 +6803,19 @@
       <c r="H164">
         <v>-1.379332079713413</v>
       </c>
-      <c r="I164" t="b">
-        <v>1</v>
-      </c>
-      <c r="J164" t="b">
-        <v>1</v>
+      <c r="I164">
+        <v>23988.25</v>
+      </c>
+      <c r="J164">
+        <v>23649</v>
       </c>
       <c r="K164">
-        <v>23988.25</v>
-      </c>
-      <c r="L164">
-        <v>23649</v>
-      </c>
-      <c r="M164">
         <v>339.25</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:11">
       <c r="A165" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B165">
         <v>23461</v>
@@ -7828,25 +6838,19 @@
       <c r="H165">
         <v>-0.6199535567438574</v>
       </c>
-      <c r="I165" t="b">
-        <v>1</v>
-      </c>
-      <c r="J165" t="b">
-        <v>1</v>
+      <c r="I165">
+        <v>23634.25</v>
+      </c>
+      <c r="J165">
+        <v>23266.25</v>
       </c>
       <c r="K165">
-        <v>23634.25</v>
-      </c>
-      <c r="L165">
-        <v>23266.25</v>
-      </c>
-      <c r="M165">
         <v>368</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:11">
       <c r="A166" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B166">
         <v>23323</v>
@@ -7869,25 +6873,19 @@
       <c r="H166">
         <v>-0.4469645000857447</v>
       </c>
-      <c r="I166" t="b">
-        <v>1</v>
-      </c>
-      <c r="J166" t="b">
-        <v>1</v>
+      <c r="I166">
+        <v>23484.25</v>
+      </c>
+      <c r="J166">
+        <v>23100</v>
       </c>
       <c r="K166">
-        <v>23484.25</v>
-      </c>
-      <c r="L166">
-        <v>23100</v>
-      </c>
-      <c r="M166">
         <v>384.25</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:11">
       <c r="A167" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B167">
         <v>23225.25</v>
@@ -7910,25 +6908,19 @@
       <c r="H167">
         <v>1.507337503633766</v>
       </c>
-      <c r="I167" t="b">
-        <v>1</v>
-      </c>
-      <c r="J167" t="b">
-        <v>1</v>
+      <c r="I167">
+        <v>23381.75</v>
+      </c>
+      <c r="J167">
+        <v>23012.75</v>
       </c>
       <c r="K167">
-        <v>23381.75</v>
-      </c>
-      <c r="L167">
-        <v>23012.75</v>
-      </c>
-      <c r="M167">
         <v>369</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:11">
       <c r="A168" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B168">
         <v>23602</v>
@@ -7951,25 +6943,19 @@
       <c r="H168">
         <v>-0.3033549358817944</v>
       </c>
-      <c r="I168" t="b">
-        <v>1</v>
-      </c>
-      <c r="J168" t="b">
-        <v>1</v>
+      <c r="I168">
+        <v>23805.5</v>
+      </c>
+      <c r="J168">
+        <v>23373.5</v>
       </c>
       <c r="K168">
-        <v>23805.5</v>
-      </c>
-      <c r="L168">
-        <v>23373.5</v>
-      </c>
-      <c r="M168">
         <v>432</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:11">
       <c r="A169" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B169">
         <v>23505.75</v>
@@ -7992,25 +6978,19 @@
       <c r="H169">
         <v>0.3968380624089107</v>
       </c>
-      <c r="I169" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" t="b">
-        <v>1</v>
+      <c r="I169">
+        <v>23699</v>
+      </c>
+      <c r="J169">
+        <v>23299.25</v>
       </c>
       <c r="K169">
-        <v>23699</v>
-      </c>
-      <c r="L169">
-        <v>23299.25</v>
-      </c>
-      <c r="M169">
         <v>399.75</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:11">
       <c r="A170" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B170">
         <v>23604</v>
@@ -8033,25 +7013,19 @@
       <c r="H170">
         <v>0.1578958523196894</v>
       </c>
-      <c r="I170" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" t="b">
-        <v>1</v>
+      <c r="I170">
+        <v>23807</v>
+      </c>
+      <c r="J170">
+        <v>23397.5</v>
       </c>
       <c r="K170">
-        <v>23807</v>
-      </c>
-      <c r="L170">
-        <v>23397.5</v>
-      </c>
-      <c r="M170">
         <v>409.5</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:11">
       <c r="A171" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B171">
         <v>23542.25</v>
@@ -8074,25 +7048,19 @@
       <c r="H171">
         <v>0.5935565783208974</v>
       </c>
-      <c r="I171" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" t="b">
-        <v>1</v>
+      <c r="I171">
+        <v>23752</v>
+      </c>
+      <c r="J171">
+        <v>23335.75</v>
       </c>
       <c r="K171">
-        <v>23752</v>
-      </c>
-      <c r="L171">
-        <v>23335.75</v>
-      </c>
-      <c r="M171">
         <v>416.25</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:11">
       <c r="A172" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B172">
         <v>23760.5</v>
@@ -8115,25 +7083,19 @@
       <c r="H172">
         <v>-1.292650090453951</v>
       </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="b">
-        <v>1</v>
+      <c r="I172">
+        <v>23971.5</v>
+      </c>
+      <c r="J172">
+        <v>23541.5</v>
       </c>
       <c r="K172">
-        <v>23971.5</v>
-      </c>
-      <c r="L172">
-        <v>23541.5</v>
-      </c>
-      <c r="M172">
         <v>430</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:11">
       <c r="A173" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B173">
         <v>23479</v>
@@ -8156,25 +7118,19 @@
       <c r="H173">
         <v>0.1726213943972654</v>
       </c>
-      <c r="I173" t="b">
-        <v>1</v>
-      </c>
-      <c r="J173" t="b">
-        <v>1</v>
+      <c r="I173">
+        <v>23715</v>
+      </c>
+      <c r="J173">
+        <v>23254</v>
       </c>
       <c r="K173">
-        <v>23715</v>
-      </c>
-      <c r="L173">
-        <v>23254</v>
-      </c>
-      <c r="M173">
         <v>461</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:11">
       <c r="A174" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B174">
         <v>23502.25</v>
@@ -8197,25 +7153,19 @@
       <c r="H174">
         <v>-0.9669286983161163</v>
       </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="b">
-        <v>1</v>
+      <c r="I174">
+        <v>23716</v>
+      </c>
+      <c r="J174">
+        <v>23291.25</v>
       </c>
       <c r="K174">
-        <v>23716</v>
-      </c>
-      <c r="L174">
-        <v>23291.25</v>
-      </c>
-      <c r="M174">
         <v>424.75</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:11">
       <c r="A175" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B175">
         <v>23382</v>
@@ -8238,25 +7188,19 @@
       <c r="H175">
         <v>0.7465091299677873</v>
       </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="b">
-        <v>1</v>
+      <c r="I175">
+        <v>23595.75</v>
+      </c>
+      <c r="J175">
+        <v>23165.25</v>
       </c>
       <c r="K175">
-        <v>23595.75</v>
-      </c>
-      <c r="L175">
-        <v>23165.25</v>
-      </c>
-      <c r="M175">
         <v>430.5</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:11">
       <c r="A176" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B176">
         <v>23456.75</v>
@@ -8279,25 +7223,19 @@
       <c r="H176">
         <v>0.9350178580947777</v>
       </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="b">
-        <v>1</v>
+      <c r="I176">
+        <v>23660.5</v>
+      </c>
+      <c r="J176">
+        <v>23224.5</v>
       </c>
       <c r="K176">
-        <v>23660.5</v>
-      </c>
-      <c r="L176">
-        <v>23224.5</v>
-      </c>
-      <c r="M176">
         <v>436</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:11">
       <c r="A177" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B177">
         <v>23700</v>
@@ -8320,25 +7258,19 @@
       <c r="H177">
         <v>0.06760182524927494</v>
       </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="b">
-        <v>1</v>
+      <c r="I177">
+        <v>23872.75</v>
+      </c>
+      <c r="J177">
+        <v>23467.75</v>
       </c>
       <c r="K177">
-        <v>23872.75</v>
-      </c>
-      <c r="L177">
-        <v>23467.75</v>
-      </c>
-      <c r="M177">
         <v>405</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:11">
       <c r="A178" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B178">
         <v>23673.5</v>
@@ -8361,25 +7293,19 @@
       <c r="H178">
         <v>0.4887265664583751</v>
       </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="b">
-        <v>1</v>
+      <c r="I178">
+        <v>23846.25</v>
+      </c>
+      <c r="J178">
+        <v>23390.5</v>
       </c>
       <c r="K178">
-        <v>23846.25</v>
-      </c>
-      <c r="L178">
-        <v>23390.5</v>
-      </c>
-      <c r="M178">
         <v>455.75</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:11">
       <c r="A179" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B179">
         <v>23799</v>
@@ -8402,25 +7328,19 @@
       <c r="H179">
         <v>0.3119780669964989</v>
       </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="b">
-        <v>1</v>
+      <c r="I179">
+        <v>23971.5</v>
+      </c>
+      <c r="J179">
+        <v>23516</v>
       </c>
       <c r="K179">
-        <v>23971.5</v>
-      </c>
-      <c r="L179">
-        <v>23516</v>
-      </c>
-      <c r="M179">
         <v>455.5</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:11">
       <c r="A180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B180">
         <v>23898.5</v>
@@ -8443,25 +7363,19 @@
       <c r="H180">
         <v>0.01570746418697588</v>
       </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="b">
-        <v>1</v>
+      <c r="I180">
+        <v>24064.25</v>
+      </c>
+      <c r="J180">
+        <v>23615.5</v>
       </c>
       <c r="K180">
-        <v>24064.25</v>
-      </c>
-      <c r="L180">
-        <v>23615.5</v>
-      </c>
-      <c r="M180">
         <v>448.75</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:11">
       <c r="A181" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B181">
         <v>23853.75</v>
@@ -8484,25 +7398,19 @@
       <c r="H181">
         <v>0.586319900325627</v>
       </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="b">
-        <v>1</v>
+      <c r="I181">
+        <v>24009.5</v>
+      </c>
+      <c r="J181">
+        <v>23597.25</v>
       </c>
       <c r="K181">
-        <v>24009.5</v>
-      </c>
-      <c r="L181">
-        <v>23597.25</v>
-      </c>
-      <c r="M181">
         <v>412.25</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:11">
       <c r="A182" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B182">
         <v>24028.25</v>
@@ -8525,25 +7433,19 @@
       <c r="H182">
         <v>0.3976225916249465</v>
       </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="b">
-        <v>1</v>
+      <c r="I182">
+        <v>24181.75</v>
+      </c>
+      <c r="J182">
+        <v>23769</v>
       </c>
       <c r="K182">
-        <v>24181.75</v>
-      </c>
-      <c r="L182">
-        <v>23769</v>
-      </c>
-      <c r="M182">
         <v>412.75</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:11">
       <c r="A183" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B183">
         <v>24115.25</v>
@@ -8566,25 +7468,19 @@
       <c r="H183">
         <v>0.759955626056219</v>
       </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="b">
-        <v>1</v>
+      <c r="I183">
+        <v>24269.5</v>
+      </c>
+      <c r="J183">
+        <v>23856</v>
       </c>
       <c r="K183">
-        <v>24269.5</v>
-      </c>
-      <c r="L183">
-        <v>23856</v>
-      </c>
-      <c r="M183">
         <v>413.5</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:11">
       <c r="A184" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B184">
         <v>24290</v>
@@ -8607,25 +7503,19 @@
       <c r="H184">
         <v>-0.0514477393863344</v>
       </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="b">
-        <v>1</v>
+      <c r="I184">
+        <v>24445.75</v>
+      </c>
+      <c r="J184">
+        <v>24066.25</v>
       </c>
       <c r="K184">
-        <v>24445.75</v>
-      </c>
-      <c r="L184">
-        <v>24066.25</v>
-      </c>
-      <c r="M184">
         <v>379.5</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:11">
       <c r="A185" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B185">
         <v>24290</v>
@@ -8648,25 +7538,19 @@
       <c r="H185">
         <v>-0.2532531708120622</v>
       </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="b">
-        <v>1</v>
+      <c r="I185">
+        <v>24445.75</v>
+      </c>
+      <c r="J185">
+        <v>24108</v>
       </c>
       <c r="K185">
-        <v>24445.75</v>
-      </c>
-      <c r="L185">
-        <v>24108</v>
-      </c>
-      <c r="M185">
         <v>337.75</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:11">
       <c r="A186" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B186">
         <v>24250.25</v>
@@ -8689,25 +7573,19 @@
       <c r="H186">
         <v>0.9815254412220087</v>
       </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="b">
-        <v>1</v>
+      <c r="I186">
+        <v>24396.5</v>
+      </c>
+      <c r="J186">
+        <v>24061</v>
       </c>
       <c r="K186">
-        <v>24396.5</v>
-      </c>
-      <c r="L186">
-        <v>24061</v>
-      </c>
-      <c r="M186">
         <v>335.5</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:11">
       <c r="A187" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B187">
         <v>24468.25</v>
@@ -8730,25 +7608,19 @@
       <c r="H187">
         <v>0.4405106243803747</v>
       </c>
-      <c r="I187" t="b">
-        <v>1</v>
-      </c>
-      <c r="J187" t="b">
-        <v>1</v>
+      <c r="I187">
+        <v>24626.5</v>
+      </c>
+      <c r="J187">
+        <v>24306.25</v>
       </c>
       <c r="K187">
-        <v>24626.5</v>
-      </c>
-      <c r="L187">
-        <v>24306.25</v>
-      </c>
-      <c r="M187">
         <v>320.25</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:11">
       <c r="A188" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B188">
         <v>24850</v>
@@ -8771,25 +7643,19 @@
       <c r="H188">
         <v>1.770595897101912</v>
       </c>
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" t="b">
-        <v>1</v>
+      <c r="I188">
+        <v>24999.75</v>
+      </c>
+      <c r="J188">
+        <v>24688</v>
       </c>
       <c r="K188">
-        <v>24999.75</v>
-      </c>
-      <c r="L188">
-        <v>24688</v>
-      </c>
-      <c r="M188">
         <v>311.75</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:11">
       <c r="A189" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B189">
         <v>24995</v>
@@ -8812,25 +7678,19 @@
       <c r="H189">
         <v>-0.7029156501219824</v>
       </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="b">
-        <v>1</v>
+      <c r="I189">
+        <v>25154.25</v>
+      </c>
+      <c r="J189">
+        <v>24833</v>
       </c>
       <c r="K189">
-        <v>25154.25</v>
-      </c>
-      <c r="L189">
-        <v>24833</v>
-      </c>
-      <c r="M189">
         <v>321.25</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:11">
       <c r="A190" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B190">
         <v>24839.5</v>
@@ -8853,25 +7713,19 @@
       <c r="H190">
         <v>-0.3544492442779656</v>
       </c>
-      <c r="I190" t="b">
-        <v>1</v>
-      </c>
-      <c r="J190" t="b">
-        <v>1</v>
+      <c r="I190">
+        <v>24998.75</v>
+      </c>
+      <c r="J190">
+        <v>24680.5</v>
       </c>
       <c r="K190">
-        <v>24998.75</v>
-      </c>
-      <c r="L190">
-        <v>24680.5</v>
-      </c>
-      <c r="M190">
         <v>318.25</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:11">
       <c r="A191" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B191">
         <v>24746</v>
@@ -8894,25 +7748,19 @@
       <c r="H191">
         <v>-0.4446375698535676</v>
       </c>
-      <c r="I191" t="b">
-        <v>1</v>
-      </c>
-      <c r="J191" t="b">
-        <v>1</v>
+      <c r="I191">
+        <v>24908.75</v>
+      </c>
+      <c r="J191">
+        <v>24578</v>
       </c>
       <c r="K191">
-        <v>24908.75</v>
-      </c>
-      <c r="L191">
-        <v>24578</v>
-      </c>
-      <c r="M191">
         <v>330.75</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:11">
       <c r="A192" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B192">
         <v>24642.5</v>
@@ -8935,25 +7783,19 @@
       <c r="H192">
         <v>0.3958707634215353</v>
       </c>
-      <c r="I192" t="b">
-        <v>1</v>
-      </c>
-      <c r="J192" t="b">
-        <v>1</v>
+      <c r="I192">
+        <v>24813.5</v>
+      </c>
+      <c r="J192">
+        <v>24457.5</v>
       </c>
       <c r="K192">
-        <v>24813.5</v>
-      </c>
-      <c r="L192">
-        <v>24457.5</v>
-      </c>
-      <c r="M192">
         <v>356</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:11">
       <c r="A193" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B193">
         <v>24726.5</v>
@@ -8976,25 +7818,19 @@
       <c r="H193">
         <v>0.4489065485759447</v>
       </c>
-      <c r="I193" t="b">
-        <v>1</v>
-      </c>
-      <c r="J193" t="b">
-        <v>1</v>
+      <c r="I193">
+        <v>24895.25</v>
+      </c>
+      <c r="J193">
+        <v>24541.5</v>
       </c>
       <c r="K193">
-        <v>24895.25</v>
-      </c>
-      <c r="L193">
-        <v>24541.5</v>
-      </c>
-      <c r="M193">
         <v>353.75</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:11">
       <c r="A194" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B194">
         <v>24817.75</v>
@@ -9017,25 +7853,19 @@
       <c r="H194">
         <v>0.2576722931827646</v>
       </c>
-      <c r="I194" t="b">
-        <v>1</v>
-      </c>
-      <c r="J194" t="b">
-        <v>1</v>
+      <c r="I194">
+        <v>24987.5</v>
+      </c>
+      <c r="J194">
+        <v>24611.25</v>
       </c>
       <c r="K194">
-        <v>24987.5</v>
-      </c>
-      <c r="L194">
-        <v>24611.25</v>
-      </c>
-      <c r="M194">
         <v>376.25</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:11">
       <c r="A195" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B195">
         <v>24843</v>
@@ -9058,25 +7888,19 @@
       <c r="H195">
         <v>0.464826769202964</v>
       </c>
-      <c r="I195" t="b">
-        <v>1</v>
-      </c>
-      <c r="J195" t="b">
-        <v>1</v>
+      <c r="I195">
+        <v>25006.25</v>
+      </c>
+      <c r="J195">
+        <v>24637.75</v>
       </c>
       <c r="K195">
-        <v>25006.25</v>
-      </c>
-      <c r="L195">
-        <v>24637.75</v>
-      </c>
-      <c r="M195">
         <v>368.5</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:11">
       <c r="A196" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B196">
         <v>25009.25</v>
@@ -9099,25 +7923,19 @@
       <c r="H196">
         <v>0.3697411811731888</v>
       </c>
-      <c r="I196" t="b">
-        <v>1</v>
-      </c>
-      <c r="J196" t="b">
-        <v>1</v>
+      <c r="I196">
+        <v>25181.75</v>
+      </c>
+      <c r="J196">
+        <v>24804</v>
       </c>
       <c r="K196">
-        <v>25181.75</v>
-      </c>
-      <c r="L196">
-        <v>24804</v>
-      </c>
-      <c r="M196">
         <v>377.75</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:11">
       <c r="A197" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B197">
         <v>25101.5</v>
@@ -9140,25 +7958,19 @@
       <c r="H197">
         <v>-0.4699322978892861</v>
       </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="b">
-        <v>1</v>
+      <c r="I197">
+        <v>25276.75</v>
+      </c>
+      <c r="J197">
+        <v>24896.25</v>
       </c>
       <c r="K197">
-        <v>25276.75</v>
-      </c>
-      <c r="L197">
-        <v>24896.25</v>
-      </c>
-      <c r="M197">
         <v>380.5</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:11">
       <c r="A198" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B198">
         <v>25000</v>
@@ -9181,25 +7993,19 @@
       <c r="H198">
         <v>0.7712467989756666</v>
       </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="b">
-        <v>1</v>
+      <c r="I198">
+        <v>25172.25</v>
+      </c>
+      <c r="J198">
+        <v>24799.5</v>
       </c>
       <c r="K198">
-        <v>25172.25</v>
-      </c>
-      <c r="L198">
-        <v>24799.5</v>
-      </c>
-      <c r="M198">
         <v>372.75</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:11">
       <c r="A199" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B199">
         <v>25184.5</v>
@@ -9222,25 +8028,19 @@
       <c r="H199">
         <v>-0.5777305710797154</v>
       </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="b">
-        <v>1</v>
+      <c r="I199">
+        <v>25357.5</v>
+      </c>
+      <c r="J199">
+        <v>24973</v>
       </c>
       <c r="K199">
-        <v>25357.5</v>
-      </c>
-      <c r="L199">
-        <v>24973</v>
-      </c>
-      <c r="M199">
         <v>384.5</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:11">
       <c r="A200" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B200">
         <v>25059.75</v>
@@ -9263,25 +8063,19 @@
       <c r="H200">
         <v>1.165170682029215</v>
       </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="b">
-        <v>1</v>
+      <c r="I200">
+        <v>25232.75</v>
+      </c>
+      <c r="J200">
+        <v>24847.5</v>
       </c>
       <c r="K200">
-        <v>25232.75</v>
-      </c>
-      <c r="L200">
-        <v>24847.5</v>
-      </c>
-      <c r="M200">
         <v>385.25</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:11">
       <c r="A201" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B201">
         <v>25351.5</v>
@@ -9304,25 +8098,19 @@
       <c r="H201">
         <v>-0.1648178121669064</v>
       </c>
-      <c r="I201" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" t="b">
-        <v>1</v>
+      <c r="I201">
+        <v>25532.75</v>
+      </c>
+      <c r="J201">
+        <v>25159.5</v>
       </c>
       <c r="K201">
-        <v>25532.75</v>
-      </c>
-      <c r="L201">
-        <v>25159.5</v>
-      </c>
-      <c r="M201">
         <v>373.25</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:11">
       <c r="A202" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B202">
         <v>25287.75</v>
@@ -9345,25 +8133,19 @@
       <c r="H202">
         <v>-3.528178969324913</v>
       </c>
-      <c r="I202" t="b">
-        <v>1</v>
-      </c>
-      <c r="J202" t="b">
-        <v>1</v>
+      <c r="I202">
+        <v>25473.25</v>
+      </c>
+      <c r="J202">
+        <v>25106.75</v>
       </c>
       <c r="K202">
-        <v>25473.25</v>
-      </c>
-      <c r="L202">
-        <v>25106.75</v>
-      </c>
-      <c r="M202">
         <v>366.5</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:11">
       <c r="A203" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B203">
         <v>24542</v>
@@ -9386,25 +8168,19 @@
       <c r="H203">
         <v>2.15292863876706</v>
       </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="b">
-        <v>1</v>
+      <c r="I203">
+        <v>24730</v>
+      </c>
+      <c r="J203">
+        <v>24196.75</v>
       </c>
       <c r="K203">
-        <v>24730</v>
-      </c>
-      <c r="L203">
-        <v>24196.75</v>
-      </c>
-      <c r="M203">
         <v>533.25</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:11">
       <c r="A204" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B204">
         <v>24913.75</v>
@@ -9427,25 +8203,19 @@
       <c r="H204">
         <v>-0.6409934897531278</v>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="b">
-        <v>1</v>
+      <c r="I204">
+        <v>25133.25</v>
+      </c>
+      <c r="J204">
+        <v>24568.5</v>
       </c>
       <c r="K204">
-        <v>25133.25</v>
-      </c>
-      <c r="L204">
-        <v>24568.5</v>
-      </c>
-      <c r="M204">
         <v>564.75</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:11">
       <c r="A205" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B205">
         <v>24754</v>
@@ -9468,25 +8238,19 @@
       <c r="H205">
         <v>0.6542150429076132</v>
       </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="b">
-        <v>1</v>
+      <c r="I205">
+        <v>24959.75</v>
+      </c>
+      <c r="J205">
+        <v>24392.75</v>
       </c>
       <c r="K205">
-        <v>24959.75</v>
-      </c>
-      <c r="L205">
-        <v>24392.75</v>
-      </c>
-      <c r="M205">
         <v>567</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:11">
       <c r="A206" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B206">
         <v>24937</v>
@@ -9509,25 +8273,19 @@
       <c r="H206">
         <v>-0.3741298722140907</v>
       </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="b">
-        <v>1</v>
+      <c r="I206">
+        <v>25188</v>
+      </c>
+      <c r="J206">
+        <v>24575.75</v>
       </c>
       <c r="K206">
-        <v>25188</v>
-      </c>
-      <c r="L206">
-        <v>24575.75</v>
-      </c>
-      <c r="M206">
         <v>612.25</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:11">
       <c r="A207" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B207">
         <v>24793.75</v>
@@ -9550,25 +8308,19 @@
       <c r="H207">
         <v>0.625220236597035</v>
       </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="b">
-        <v>1</v>
+      <c r="I207">
+        <v>25044.75</v>
+      </c>
+      <c r="J207">
+        <v>24396.75</v>
       </c>
       <c r="K207">
-        <v>25044.75</v>
-      </c>
-      <c r="L207">
-        <v>24396.75</v>
-      </c>
-      <c r="M207">
         <v>648</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:11">
       <c r="A208" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B208">
         <v>25065.75</v>
@@ -9591,25 +8343,19 @@
       <c r="H208">
         <v>1.275688871990877</v>
       </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="b">
-        <v>1</v>
+      <c r="I208">
+        <v>25382.75</v>
+      </c>
+      <c r="J208">
+        <v>24668.75</v>
       </c>
       <c r="K208">
-        <v>25382.75</v>
-      </c>
-      <c r="L208">
-        <v>24668.75</v>
-      </c>
-      <c r="M208">
         <v>714</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:11">
       <c r="A209" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B209">
         <v>25326.75</v>
@@ -9632,25 +8378,19 @@
       <c r="H209">
         <v>-0.04149336600112186</v>
       </c>
-      <c r="I209" t="b">
-        <v>1</v>
-      </c>
-      <c r="J209" t="b">
-        <v>1</v>
+      <c r="I209">
+        <v>25634.75</v>
+      </c>
+      <c r="J209">
+        <v>24879.75</v>
       </c>
       <c r="K209">
-        <v>25634.75</v>
-      </c>
-      <c r="L209">
-        <v>24879.75</v>
-      </c>
-      <c r="M209">
         <v>755</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:11">
       <c r="A210" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B210">
         <v>25283.75</v>
@@ -9673,25 +8413,19 @@
       <c r="H210">
         <v>-1.010091026794102</v>
       </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="b">
-        <v>1</v>
+      <c r="I210">
+        <v>25611</v>
+      </c>
+      <c r="J210">
+        <v>24903.75</v>
       </c>
       <c r="K210">
-        <v>25611</v>
-      </c>
-      <c r="L210">
-        <v>24903.75</v>
-      </c>
-      <c r="M210">
         <v>707.25</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:11">
       <c r="A211" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B211">
         <v>25012.25</v>
@@ -9714,25 +8448,19 @@
       <c r="H211">
         <v>0.8576534840300631</v>
       </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="b">
-        <v>1</v>
+      <c r="I211">
+        <v>25339.5</v>
+      </c>
+      <c r="J211">
+        <v>24591.25</v>
       </c>
       <c r="K211">
-        <v>25339.5</v>
-      </c>
-      <c r="L211">
-        <v>24591.25</v>
-      </c>
-      <c r="M211">
         <v>748.25</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:11">
       <c r="A212" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B212">
         <v>25283.25</v>
@@ -9755,25 +8483,19 @@
       <c r="H212">
         <v>1.010730973311169</v>
       </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="b">
-        <v>1</v>
+      <c r="I212">
+        <v>25594.25</v>
+      </c>
+      <c r="J212">
+        <v>24966.75</v>
       </c>
       <c r="K212">
-        <v>25594.25</v>
-      </c>
-      <c r="L212">
-        <v>24966.75</v>
-      </c>
-      <c r="M212">
         <v>627.5</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:11">
       <c r="A213" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B213">
         <v>25723.5</v>
@@ -9796,25 +8518,19 @@
       <c r="H213">
         <v>1.781706635828173</v>
       </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="b">
-        <v>1</v>
+      <c r="I213">
+        <v>26017</v>
+      </c>
+      <c r="J213">
+        <v>25407</v>
       </c>
       <c r="K213">
-        <v>26017</v>
-      </c>
-      <c r="L213">
-        <v>25407</v>
-      </c>
-      <c r="M213">
         <v>610</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:11">
       <c r="A214" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B214">
         <v>26002.5</v>
@@ -9837,25 +8553,19 @@
       <c r="H214">
         <v>0.7693418708776711</v>
       </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="b">
-        <v>1</v>
+      <c r="I214">
+        <v>26282.75</v>
+      </c>
+      <c r="J214">
+        <v>25722</v>
       </c>
       <c r="K214">
-        <v>26282.75</v>
-      </c>
-      <c r="L214">
-        <v>25722</v>
-      </c>
-      <c r="M214">
         <v>560.75</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:11">
       <c r="A215" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B215">
         <v>26179.75</v>
@@ -9878,25 +8588,19 @@
       <c r="H215">
         <v>0.3783897414336712</v>
       </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="b">
-        <v>1</v>
+      <c r="I215">
+        <v>26441.25</v>
+      </c>
+      <c r="J215">
+        <v>25899.25</v>
       </c>
       <c r="K215">
-        <v>26441.25</v>
-      </c>
-      <c r="L215">
-        <v>25899.25</v>
-      </c>
-      <c r="M215">
         <v>542</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:11">
       <c r="A216" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B216">
         <v>26154.5</v>
@@ -9919,25 +8623,19 @@
       <c r="H216">
         <v>-1.44597810566397</v>
       </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="b">
-        <v>1</v>
+      <c r="I216">
+        <v>26411</v>
+      </c>
+      <c r="J216">
+        <v>25916.5</v>
       </c>
       <c r="K216">
-        <v>26411</v>
-      </c>
-      <c r="L216">
-        <v>25916.5</v>
-      </c>
-      <c r="M216">
         <v>494.5</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:11">
       <c r="A217" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B217">
         <v>26150.5</v>
@@ -9960,25 +8658,19 @@
       <c r="H217">
         <v>0.4684587225082248</v>
       </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="b">
-        <v>1</v>
+      <c r="I217">
+        <v>26376.25</v>
+      </c>
+      <c r="J217">
+        <v>25867.75</v>
       </c>
       <c r="K217">
-        <v>26376.25</v>
-      </c>
-      <c r="L217">
-        <v>25867.75</v>
-      </c>
-      <c r="M217">
         <v>508.5</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:11">
       <c r="A218" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B218">
         <v>26028.25</v>
@@ -10001,25 +8693,19 @@
       <c r="H218">
         <v>0.3816720504537852</v>
       </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="b">
-        <v>1</v>
+      <c r="I218">
+        <v>26244.75</v>
+      </c>
+      <c r="J218">
+        <v>25750.5</v>
       </c>
       <c r="K218">
-        <v>26244.75</v>
-      </c>
-      <c r="L218">
-        <v>25750.5</v>
-      </c>
-      <c r="M218">
         <v>494.25</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:11">
       <c r="A219" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B219">
         <v>26104.5</v>
@@ -10042,25 +8728,19 @@
       <c r="H219">
         <v>-2.02273663241167</v>
       </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="b">
-        <v>1</v>
+      <c r="I219">
+        <v>26313.75</v>
+      </c>
+      <c r="J219">
+        <v>25771.75</v>
       </c>
       <c r="K219">
-        <v>26313.75</v>
-      </c>
-      <c r="L219">
-        <v>25771.75</v>
-      </c>
-      <c r="M219">
         <v>542</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:11">
       <c r="A220" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B220">
         <v>25545</v>
@@ -10083,25 +8763,19 @@
       <c r="H220">
         <v>0.6686151650521444</v>
       </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="b">
-        <v>1</v>
+      <c r="I220">
+        <v>25754.25</v>
+      </c>
+      <c r="J220">
+        <v>25201.25</v>
       </c>
       <c r="K220">
-        <v>25754.25</v>
-      </c>
-      <c r="L220">
-        <v>25201.25</v>
-      </c>
-      <c r="M220">
         <v>553</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:11">
       <c r="A221" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B221">
         <v>25738.5</v>
@@ -10124,25 +8798,19 @@
       <c r="H221">
         <v>-1.949798514346746</v>
       </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="b">
-        <v>1</v>
+      <c r="I221">
+        <v>25975</v>
+      </c>
+      <c r="J221">
+        <v>25394.75</v>
       </c>
       <c r="K221">
-        <v>25975</v>
-      </c>
-      <c r="L221">
-        <v>25394.75</v>
-      </c>
-      <c r="M221">
         <v>580.25</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:11">
       <c r="A222" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B222">
         <v>25314.75</v>
@@ -10165,19 +8833,13 @@
       <c r="H222">
         <v>-0.3089812531566594</v>
       </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="b">
-        <v>1</v>
+      <c r="I222">
+        <v>25558.25</v>
+      </c>
+      <c r="J222">
+        <v>24950.5</v>
       </c>
       <c r="K222">
-        <v>25558.25</v>
-      </c>
-      <c r="L222">
-        <v>24950.5</v>
-      </c>
-      <c r="M222">
         <v>607.75</v>
       </c>
     </row>
